--- a/web/i18n.xlsx
+++ b/web/i18n.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12080"/>
+    <workbookView windowWidth="28800" windowHeight="12040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,7 @@
     <t>高速モード</t>
   </si>
   <si>
-    <t>Straight Mode</t>
+    <t>Linear Mode</t>
   </si>
   <si>
     <t>直线模式</t>
@@ -7532,10 +7532,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -7606,11 +7606,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7622,7 +7629,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7636,38 +7665,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -7683,10 +7713,32 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7699,59 +7751,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7766,7 +7766,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7778,7 +7844,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7790,43 +7880,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7838,103 +7892,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7950,6 +7908,48 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -7957,21 +7957,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -7990,10 +7975,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -8016,10 +8018,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -8043,17 +8043,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8062,148 +8062,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8610,9 +8610,9 @@
   <dimension ref="A1:K240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C245" sqref="C245"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="17.6"/>

--- a/web/i18n.xlsx
+++ b/web/i18n.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13720"/>
+    <workbookView windowWidth="28800" windowHeight="12320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471">
   <si>
     <t>en</t>
   </si>
@@ -2143,7 +2143,7 @@
     <t>黑與白</t>
   </si>
   <si>
-    <t>GREYSCALE</t>
+    <t>Greyscale</t>
   </si>
   <si>
     <t>灰度图</t>
@@ -2226,7 +2226,7 @@
     <t>向量圖</t>
   </si>
   <si>
-    <t>TEXT</t>
+    <t>Text</t>
   </si>
   <si>
     <t>文本</t>
@@ -2238,9 +2238,6 @@
     <t>Testo</t>
   </si>
   <si>
-    <t>Text</t>
-  </si>
-  <si>
     <t>Texte</t>
   </si>
   <si>
@@ -2253,7 +2250,7 @@
     <t>テキスト</t>
   </si>
   <si>
-    <t>EXAMPLE</t>
+    <t>Example</t>
   </si>
   <si>
     <t>示例</t>
@@ -2625,7 +2622,7 @@
     <t>圖片的高度</t>
   </si>
   <si>
-    <t>Rotate of the picture.</t>
+    <t>Rotation of the picture.</t>
   </si>
   <si>
     <t>图片的旋转角度</t>
@@ -4205,7 +4202,7 @@
     <t># bw #</t>
   </si>
   <si>
-    <t>Set a threshold to make sure the pixel whose grayscale is less than the threshold to black.</t>
+    <t>Set a threshold to make sure the pixel whose greyscale is less than the threshold to black.</t>
   </si>
   <si>
     <t>设置阈值，以确保其灰度小于阈值的像素为黑色</t>
@@ -5074,8 +5071,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5084,13 +5112,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5105,46 +5126,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5159,7 +5141,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5173,41 +5185,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5239,13 +5236,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5257,55 +5266,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5323,19 +5308,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5347,13 +5326,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5365,19 +5356,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5389,25 +5398,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5419,7 +5416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5430,54 +5427,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5496,17 +5445,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5530,153 +5482,198 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6096,9 +6093,9 @@
   <dimension ref="A1:XFD453"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
+      <selection pane="bottomLeft" activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.8482142857143" defaultRowHeight="16" customHeight="1"/>
@@ -24864,19 +24861,19 @@
         <v>655</v>
       </c>
       <c r="E123" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="F123" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="F123" s="1" t="s">
+      <c r="G123" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="G123" s="1" t="s">
+      <c r="H123" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="H123" s="1" t="s">
+      <c r="I123" s="1" t="s">
         <v>659</v>
-      </c>
-      <c r="I123" s="1" t="s">
-        <v>660</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>330</v>
@@ -24884,10 +24881,10 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="B124" s="4" t="s">
         <v>661</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -24896,361 +24893,361 @@
     </row>
     <row r="126" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A126" s="10" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B126" s="4"/>
       <c r="C126" s="3"/>
     </row>
     <row r="127" s="1" customFormat="1" customHeight="1" spans="1:10">
       <c r="A127" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="B127" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="C127" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="D127" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="E127" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="G127" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="E127" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="G127" s="1" t="s">
+      <c r="H127" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="H127" s="1" t="s">
+      <c r="I127" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="I127" s="1" t="s">
+      <c r="J127" s="1" t="s">
         <v>670</v>
-      </c>
-      <c r="J127" s="1" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="128" customHeight="1" spans="1:10">
       <c r="A128" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="B128" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="C128" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="D128" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="E128" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="E128" s="1" t="s">
+      <c r="F128" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="F128" s="1" t="s">
+      <c r="G128" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="G128" s="1" t="s">
+      <c r="H128" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="H128" s="1" t="s">
+      <c r="I128" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="I128" s="1" t="s">
+      <c r="J128" s="1" t="s">
         <v>680</v>
-      </c>
-      <c r="J128" s="1" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="129" customHeight="1" spans="1:10">
       <c r="A129" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="B129" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="C129" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="D129" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="E129" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="F129" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="G129" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="G129" s="1" t="s">
+      <c r="H129" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="H129" s="1" t="s">
+      <c r="I129" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="I129" s="1" t="s">
-        <v>690</v>
-      </c>
       <c r="J129" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="130" customHeight="1" spans="1:10">
       <c r="A130" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="C130" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="D130" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="E130" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="E130" s="1" t="s">
+      <c r="F130" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="G130" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="F130" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="G130" s="1" t="s">
+      <c r="H130" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="H130" s="1" t="s">
+      <c r="I130" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="I130" s="1" t="s">
+      <c r="J130" s="1" t="s">
         <v>698</v>
-      </c>
-      <c r="J130" s="1" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="131" customHeight="1" spans="1:10">
       <c r="A131" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="B131" s="4" t="s">
         <v>700</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="C131" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="D131" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="E131" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="E131" s="1" t="s">
+      <c r="F131" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="F131" s="1" t="s">
+      <c r="G131" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="G131" s="1" t="s">
+      <c r="H131" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="H131" s="1" t="s">
+      <c r="I131" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="I131" s="1" t="s">
-        <v>708</v>
-      </c>
       <c r="J131" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="132" customHeight="1" spans="1:10">
       <c r="A132" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="B132" s="4" t="s">
         <v>709</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="C132" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="D132" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="E132" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="E132" s="1" t="s">
+      <c r="F132" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="F132" s="1" t="s">
+      <c r="G132" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="G132" s="1" t="s">
+      <c r="H132" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="H132" s="1" t="s">
+      <c r="I132" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="I132" s="1" t="s">
-        <v>717</v>
-      </c>
       <c r="J132" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="133" customHeight="1" spans="1:10">
       <c r="A133" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="B133" s="4" t="s">
         <v>718</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="C133" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="D133" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="E133" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="E133" s="1" t="s">
+      <c r="F133" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="F133" s="1" t="s">
+      <c r="G133" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="G133" s="1" t="s">
+      <c r="H133" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="H133" s="1" t="s">
+      <c r="I133" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="I133" s="1" t="s">
+      <c r="J133" s="1" t="s">
         <v>726</v>
-      </c>
-      <c r="J133" s="1" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="1:10">
       <c r="A134" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="B134" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="C134" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="D134" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="E134" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="E134" s="1" t="s">
+      <c r="F134" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="F134" s="1" t="s">
+      <c r="G134" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="G134" s="1" t="s">
+      <c r="H134" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="H134" s="1" t="s">
+      <c r="I134" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="I134" s="1" t="s">
+      <c r="J134" s="1" t="s">
         <v>736</v>
-      </c>
-      <c r="J134" s="1" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="135" customHeight="1" spans="1:10">
       <c r="A135" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="B135" s="4" t="s">
         <v>738</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="C135" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="D135" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="E135" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="I135" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="D135" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="F135" s="1" t="s">
+      <c r="J135" s="1" t="s">
         <v>738</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="I135" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="J135" s="1" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="136" customHeight="1" spans="1:10">
       <c r="A136" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="B136" s="4" t="s">
         <v>744</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="C136" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="D136" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="E136" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="I136" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="D136" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="H136" s="1" t="s">
+      <c r="J136" s="1" t="s">
         <v>748</v>
-      </c>
-      <c r="I136" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="J136" s="1" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="137" customHeight="1" spans="1:10">
       <c r="A137" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="B137" s="4" t="s">
         <v>750</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="C137" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="D137" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="E137" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="E137" s="1" t="s">
+      <c r="F137" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="F137" s="1" t="s">
+      <c r="G137" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="G137" s="1" t="s">
+      <c r="H137" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="H137" s="1" t="s">
+      <c r="I137" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="I137" s="1" t="s">
+      <c r="J137" s="1" t="s">
         <v>758</v>
-      </c>
-      <c r="J137" s="1" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="138" customHeight="1" spans="1:3">
@@ -25260,194 +25257,194 @@
     </row>
     <row r="139" spans="1:10">
       <c r="A139" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="B139" s="4" t="s">
         <v>760</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="C139" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="D139" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="E139" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="E139" s="1" t="s">
+      <c r="F139" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="F139" s="1" t="s">
+      <c r="G139" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="G139" s="1" t="s">
+      <c r="H139" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="H139" s="1" t="s">
+      <c r="I139" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="I139" s="1" t="s">
+      <c r="J139" s="1" t="s">
         <v>768</v>
-      </c>
-      <c r="J139" s="1" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="140" spans="1:10">
       <c r="A140" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="B140" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="B140" s="4" t="s">
+      <c r="C140" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="D140" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="E140" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="E140" s="1" t="s">
+      <c r="F140" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="F140" s="1" t="s">
+      <c r="G140" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="G140" s="1" t="s">
+      <c r="H140" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="H140" s="1" t="s">
+      <c r="I140" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="I140" s="1" t="s">
+      <c r="J140" s="1" t="s">
         <v>778</v>
-      </c>
-      <c r="J140" s="1" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="141" spans="1:10">
       <c r="A141" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="B141" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="C141" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="D141" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="E141" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="E141" s="1" t="s">
+      <c r="F141" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="F141" s="1" t="s">
+      <c r="G141" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="G141" s="1" t="s">
+      <c r="H141" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="H141" s="1" t="s">
+      <c r="I141" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="I141" s="1" t="s">
+      <c r="J141" s="1" t="s">
         <v>788</v>
-      </c>
-      <c r="J141" s="1" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="142" ht="32" spans="1:10">
       <c r="A142" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="B142" s="4" t="s">
         <v>790</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="C142" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="D142" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="E142" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="E142" s="1" t="s">
+      <c r="F142" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="F142" s="1" t="s">
+      <c r="G142" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="G142" s="1" t="s">
+      <c r="H142" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="H142" s="1" t="s">
+      <c r="I142" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="I142" s="1" t="s">
+      <c r="J142" s="1" t="s">
         <v>798</v>
-      </c>
-      <c r="J142" s="1" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="143" ht="32" spans="1:10">
       <c r="A143" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="B143" s="4" t="s">
         <v>800</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="C143" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="D143" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="E143" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="E143" s="1" t="s">
+      <c r="F143" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="F143" s="1" t="s">
+      <c r="G143" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="G143" s="1" t="s">
+      <c r="H143" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="H143" s="1" t="s">
+      <c r="I143" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="I143" s="1" t="s">
+      <c r="J143" s="1" t="s">
         <v>808</v>
-      </c>
-      <c r="J143" s="1" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="144" ht="48" spans="1:10">
       <c r="A144" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="B144" s="4" t="s">
         <v>810</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="C144" s="3" t="s">
         <v>811</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="D144" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="E144" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="E144" s="1" t="s">
+      <c r="F144" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="F144" s="1" t="s">
+      <c r="G144" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="G144" s="1" t="s">
+      <c r="H144" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="H144" s="1" t="s">
+      <c r="I144" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="I144" s="1" t="s">
+      <c r="J144" s="1" t="s">
         <v>818</v>
-      </c>
-      <c r="J144" s="1" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="145" s="1" customFormat="1" spans="1:3">
@@ -25457,684 +25454,684 @@
     </row>
     <row r="146" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A146" s="10" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B146" s="4"/>
       <c r="C146" s="3"/>
     </row>
     <row r="147" s="1" customFormat="1" customHeight="1" spans="1:10">
       <c r="A147" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="B147" s="4" t="s">
         <v>821</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="C147" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="D147" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="E147" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="E147" s="1" t="s">
+      <c r="F147" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="F147" s="1" t="s">
+      <c r="G147" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="G147" s="1" t="s">
+      <c r="H147" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="H147" s="1" t="s">
+      <c r="I147" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="I147" s="1" t="s">
+      <c r="J147" s="1" t="s">
         <v>829</v>
-      </c>
-      <c r="J147" s="1" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="148" customHeight="1" spans="1:10">
       <c r="A148" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="B148" s="4" t="s">
         <v>831</v>
       </c>
-      <c r="B148" s="4" t="s">
+      <c r="C148" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="D148" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="E148" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="E148" s="1" t="s">
+      <c r="F148" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="F148" s="1" t="s">
+      <c r="G148" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="G148" s="1" t="s">
+      <c r="H148" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="H148" s="1" t="s">
+      <c r="I148" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="I148" s="1" t="s">
-        <v>839</v>
-      </c>
       <c r="J148" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="149" customHeight="1" spans="1:10">
       <c r="A149" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="B149" s="4" t="s">
         <v>840</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="C149" s="3" t="s">
         <v>841</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="D149" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="E149" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="E149" s="1" t="s">
+      <c r="F149" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="F149" s="1" t="s">
+      <c r="G149" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="G149" s="1" t="s">
+      <c r="H149" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="H149" s="1" t="s">
+      <c r="I149" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="I149" s="1" t="s">
-        <v>848</v>
-      </c>
       <c r="J149" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="150" customHeight="1" spans="1:10">
       <c r="A150" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="B150" s="4" t="s">
         <v>849</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="C150" s="3" t="s">
         <v>850</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="D150" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="E150" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="E150" s="1" t="s">
+      <c r="F150" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="F150" s="1" t="s">
+      <c r="G150" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="G150" s="1" t="s">
+      <c r="H150" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="H150" s="1" t="s">
+      <c r="I150" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="I150" s="1" t="s">
-        <v>857</v>
-      </c>
       <c r="J150" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="151" customHeight="1" spans="1:10">
       <c r="A151" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="B151" s="4" t="s">
         <v>858</v>
       </c>
-      <c r="B151" s="4" t="s">
+      <c r="C151" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="D151" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="E151" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="E151" s="1" t="s">
+      <c r="F151" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="F151" s="1" t="s">
+      <c r="G151" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="G151" s="1" t="s">
+      <c r="H151" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="H151" s="1" t="s">
+      <c r="I151" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="I151" s="1" t="s">
-        <v>866</v>
-      </c>
       <c r="J151" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="152" customHeight="1" spans="1:10">
       <c r="A152" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="B152" s="4" t="s">
         <v>867</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="C152" s="3" t="s">
         <v>868</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="D152" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="E152" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="E152" s="1" t="s">
+      <c r="F152" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="F152" s="1" t="s">
+      <c r="G152" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="G152" s="1" t="s">
+      <c r="H152" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="H152" s="1" t="s">
+      <c r="I152" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="I152" s="1" t="s">
+      <c r="J152" s="1" t="s">
         <v>875</v>
-      </c>
-      <c r="J152" s="1" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="153" customHeight="1" spans="1:10">
       <c r="A153" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="B153" s="4" t="s">
         <v>877</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="C153" s="3" t="s">
         <v>878</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="D153" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="E153" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="E153" s="1" t="s">
+      <c r="F153" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="F153" s="1" t="s">
+      <c r="G153" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="G153" s="1" t="s">
+      <c r="H153" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="H153" s="1" t="s">
+      <c r="I153" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="I153" s="1" t="s">
-        <v>885</v>
-      </c>
       <c r="J153" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="154" customHeight="1" spans="1:10">
       <c r="A154" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="B154" s="4" t="s">
         <v>886</v>
       </c>
-      <c r="B154" s="4" t="s">
+      <c r="C154" s="3" t="s">
         <v>887</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="D154" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="E154" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="E154" s="1" t="s">
+      <c r="F154" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="F154" s="1" t="s">
+      <c r="G154" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="G154" s="1" t="s">
+      <c r="H154" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="H154" s="1" t="s">
+      <c r="I154" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="I154" s="1" t="s">
-        <v>894</v>
-      </c>
       <c r="J154" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="155" s="1" customFormat="1" customHeight="1" spans="1:10">
       <c r="A155" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="B155" s="4" t="s">
         <v>895</v>
       </c>
-      <c r="B155" s="4" t="s">
+      <c r="C155" s="3" t="s">
         <v>896</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="D155" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="E155" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="E155" s="1" t="s">
+      <c r="F155" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="F155" s="1" t="s">
+      <c r="G155" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="G155" s="1" t="s">
+      <c r="H155" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="H155" s="1" t="s">
+      <c r="I155" s="20" t="s">
         <v>902</v>
       </c>
-      <c r="I155" s="20" t="s">
+      <c r="J155" s="1" t="s">
         <v>903</v>
-      </c>
-      <c r="J155" s="1" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="156" customFormat="1" ht="18" spans="1:11">
       <c r="A156" s="15" t="s">
+        <v>904</v>
+      </c>
+      <c r="B156" s="15" t="s">
         <v>905</v>
       </c>
-      <c r="B156" s="15" t="s">
+      <c r="C156" s="16" t="s">
         <v>906</v>
       </c>
-      <c r="C156" s="16" t="s">
+      <c r="D156" s="17" t="s">
         <v>907</v>
       </c>
-      <c r="D156" s="17" t="s">
+      <c r="E156" s="17" t="s">
         <v>908</v>
       </c>
-      <c r="E156" s="17" t="s">
+      <c r="F156" s="17" t="s">
         <v>909</v>
       </c>
-      <c r="F156" s="17" t="s">
+      <c r="G156" s="17" t="s">
         <v>910</v>
       </c>
-      <c r="G156" s="17" t="s">
+      <c r="H156" t="s">
         <v>911</v>
       </c>
-      <c r="H156" t="s">
+      <c r="I156" t="s">
         <v>912</v>
       </c>
-      <c r="I156" t="s">
+      <c r="J156" s="15" t="s">
         <v>913</v>
-      </c>
-      <c r="J156" s="15" t="s">
-        <v>914</v>
       </c>
       <c r="K156" s="15"/>
     </row>
     <row r="157" s="1" customFormat="1" spans="1:10">
       <c r="A157" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="B157" s="4" t="s">
         <v>915</v>
       </c>
-      <c r="B157" s="4" t="s">
+      <c r="C157" s="3" t="s">
         <v>916</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="D157" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="E157" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="F157" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="F157" s="1" t="s">
+      <c r="G157" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="G157" s="1" t="s">
+      <c r="H157" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="H157" s="1" t="s">
+      <c r="I157" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="I157" s="1" t="s">
+      <c r="J157" s="1" t="s">
         <v>923</v>
-      </c>
-      <c r="J157" s="1" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="158" ht="32" spans="1:10">
       <c r="A158" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="B158" s="4" t="s">
         <v>925</v>
       </c>
-      <c r="B158" s="4" t="s">
+      <c r="C158" s="3" t="s">
         <v>926</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="D158" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="E158" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="F158" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="F158" s="1" t="s">
+      <c r="G158" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="G158" s="1" t="s">
+      <c r="H158" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="H158" s="1" t="s">
+      <c r="I158" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="I158" s="1" t="s">
+      <c r="J158" s="1" t="s">
         <v>933</v>
-      </c>
-      <c r="J158" s="1" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="159" ht="48" spans="1:10">
       <c r="A159" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="B159" s="4" t="s">
         <v>935</v>
       </c>
-      <c r="B159" s="4" t="s">
+      <c r="C159" s="3" t="s">
         <v>936</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="D159" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="E159" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="E159" s="1" t="s">
+      <c r="F159" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="F159" s="1" t="s">
+      <c r="G159" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="G159" s="1" t="s">
+      <c r="H159" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="H159" s="1" t="s">
+      <c r="I159" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="I159" s="1" t="s">
+      <c r="J159" s="1" t="s">
         <v>943</v>
-      </c>
-      <c r="J159" s="1" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="160" ht="48" spans="1:10">
       <c r="A160" s="4" t="s">
+        <v>944</v>
+      </c>
+      <c r="B160" s="4" t="s">
         <v>945</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="C160" s="3" t="s">
         <v>946</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="D160" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="E160" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="E160" s="1" t="s">
+      <c r="F160" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="F160" s="1" t="s">
+      <c r="G160" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="G160" s="1" t="s">
+      <c r="H160" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="H160" s="1" t="s">
+      <c r="I160" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="I160" s="1" t="s">
+      <c r="J160" s="1" t="s">
         <v>953</v>
-      </c>
-      <c r="J160" s="1" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="161" customFormat="1" ht="17.6" spans="1:11">
       <c r="A161" s="18" t="s">
+        <v>954</v>
+      </c>
+      <c r="B161" s="18" t="s">
         <v>955</v>
       </c>
-      <c r="B161" s="18" t="s">
+      <c r="C161" s="16" t="s">
         <v>956</v>
       </c>
-      <c r="C161" s="16" t="s">
+      <c r="D161" s="17" t="s">
         <v>957</v>
       </c>
-      <c r="D161" s="17" t="s">
+      <c r="E161" s="17" t="s">
         <v>958</v>
       </c>
-      <c r="E161" s="17" t="s">
+      <c r="F161" s="17" t="s">
         <v>959</v>
       </c>
-      <c r="F161" s="17" t="s">
+      <c r="G161" s="17" t="s">
         <v>960</v>
       </c>
-      <c r="G161" s="17" t="s">
+      <c r="H161" t="s">
         <v>961</v>
       </c>
-      <c r="H161" t="s">
+      <c r="I161" t="s">
         <v>962</v>
       </c>
-      <c r="I161" t="s">
+      <c r="J161" s="18" t="s">
         <v>963</v>
-      </c>
-      <c r="J161" s="18" t="s">
-        <v>964</v>
       </c>
       <c r="K161" s="18"/>
     </row>
     <row r="162" customFormat="1" ht="17.6" spans="1:11">
       <c r="A162" s="18" t="s">
+        <v>964</v>
+      </c>
+      <c r="B162" s="18" t="s">
         <v>965</v>
       </c>
-      <c r="B162" s="18" t="s">
+      <c r="C162" s="16" t="s">
         <v>966</v>
       </c>
-      <c r="C162" s="16" t="s">
+      <c r="D162" s="17" t="s">
         <v>967</v>
       </c>
-      <c r="D162" s="17" t="s">
+      <c r="E162" s="17" t="s">
         <v>968</v>
       </c>
-      <c r="E162" s="17" t="s">
+      <c r="F162" s="17" t="s">
         <v>969</v>
       </c>
-      <c r="F162" s="17" t="s">
+      <c r="G162" s="17" t="s">
         <v>970</v>
       </c>
-      <c r="G162" s="17" t="s">
+      <c r="H162" t="s">
         <v>971</v>
       </c>
-      <c r="H162" t="s">
+      <c r="I162" s="21" t="s">
         <v>972</v>
       </c>
-      <c r="I162" s="21" t="s">
+      <c r="J162" s="18" t="s">
         <v>973</v>
-      </c>
-      <c r="J162" s="18" t="s">
-        <v>974</v>
       </c>
       <c r="K162" s="18"/>
     </row>
     <row r="163" ht="96" spans="1:10">
       <c r="A163" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="B163" s="4" t="s">
         <v>975</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="C163" s="3" t="s">
         <v>976</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="D163" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="E163" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="E163" s="1" t="s">
+      <c r="F163" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="F163" s="1" t="s">
+      <c r="G163" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="G163" s="1" t="s">
+      <c r="H163" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="H163" s="1" t="s">
+      <c r="I163" s="3" t="s">
         <v>982</v>
       </c>
-      <c r="I163" s="3" t="s">
+      <c r="J163" s="1" t="s">
         <v>983</v>
-      </c>
-      <c r="J163" s="1" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="164" ht="32" spans="1:10">
       <c r="A164" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="B164" s="4" t="s">
         <v>985</v>
       </c>
-      <c r="B164" s="4" t="s">
+      <c r="C164" s="3" t="s">
         <v>986</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="D164" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="E164" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="E164" s="1" t="s">
+      <c r="F164" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="F164" s="1" t="s">
+      <c r="G164" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="G164" s="1" t="s">
+      <c r="H164" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="H164" s="1" t="s">
+      <c r="I164" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="I164" s="1" t="s">
+      <c r="J164" s="1" t="s">
         <v>993</v>
-      </c>
-      <c r="J164" s="1" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="165" ht="48" spans="1:10">
       <c r="A165" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="B165" s="4" t="s">
         <v>995</v>
       </c>
-      <c r="B165" s="4" t="s">
+      <c r="C165" s="3" t="s">
         <v>996</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="D165" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="E165" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="E165" s="1" t="s">
+      <c r="F165" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="F165" s="1" t="s">
+      <c r="G165" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="G165" s="1" t="s">
+      <c r="H165" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="H165" s="1" t="s">
+      <c r="I165" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="I165" s="1" t="s">
+      <c r="J165" s="1" t="s">
         <v>1003</v>
-      </c>
-      <c r="J165" s="1" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="166" ht="96" spans="1:10">
       <c r="A166" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B166" s="4" t="s">
         <v>1005</v>
       </c>
-      <c r="B166" s="4" t="s">
+      <c r="C166" s="3" t="s">
         <v>1006</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="D166" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="E166" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="E166" s="1" t="s">
+      <c r="F166" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="F166" s="1" t="s">
+      <c r="G166" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="G166" s="1" t="s">
+      <c r="H166" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="H166" s="1" t="s">
+      <c r="I166" s="3" t="s">
         <v>1012</v>
       </c>
-      <c r="I166" s="3" t="s">
+      <c r="J166" s="1" t="s">
         <v>1013</v>
-      </c>
-      <c r="J166" s="1" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="167" spans="1:10">
       <c r="A167" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B167" s="4" t="s">
         <v>1015</v>
       </c>
-      <c r="B167" s="4" t="s">
+      <c r="C167" s="3" t="s">
         <v>1016</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="D167" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="E167" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="E167" s="1" t="s">
+      <c r="F167" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="F167" s="1" t="s">
+      <c r="G167" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="G167" s="1" t="s">
+      <c r="H167" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="H167" s="1" t="s">
+      <c r="I167" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="I167" s="1" t="s">
+      <c r="J167" s="1" t="s">
         <v>1023</v>
-      </c>
-      <c r="J167" s="1" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="168" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -26144,201 +26141,201 @@
     </row>
     <row r="169" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A169" s="10" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B169" s="4"/>
       <c r="C169" s="3"/>
     </row>
     <row r="170" customHeight="1" spans="1:10">
       <c r="A170" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B170" s="4" t="s">
         <v>1026</v>
       </c>
-      <c r="B170" s="4" t="s">
+      <c r="C170" s="3" t="s">
         <v>1027</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="D170" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="E170" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="E170" s="1" t="s">
+      <c r="F170" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="F170" s="1" t="s">
+      <c r="G170" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="G170" s="1" t="s">
+      <c r="H170" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="H170" s="1" t="s">
+      <c r="I170" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="I170" s="1" t="s">
+      <c r="J170" s="1" t="s">
         <v>1034</v>
-      </c>
-      <c r="J170" s="1" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="171" customHeight="1" spans="1:10">
       <c r="A171" s="4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B171" s="4" t="s">
         <v>1036</v>
       </c>
-      <c r="B171" s="4" t="s">
+      <c r="C171" s="3" t="s">
         <v>1037</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="D171" s="1" t="s">
         <v>1038</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="E171" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="E171" s="1" t="s">
+      <c r="F171" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="F171" s="1" t="s">
+      <c r="G171" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="G171" s="1" t="s">
+      <c r="H171" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="H171" s="1" t="s">
+      <c r="I171" s="20" t="s">
         <v>1043</v>
       </c>
-      <c r="I171" s="20" t="s">
-        <v>1044</v>
-      </c>
       <c r="J171" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="172" customHeight="1" spans="1:10">
       <c r="A172" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B172" s="4" t="s">
         <v>1045</v>
       </c>
-      <c r="B172" s="4" t="s">
+      <c r="C172" s="3" t="s">
         <v>1046</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="D172" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="E172" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="E172" s="1" t="s">
+      <c r="F172" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="F172" s="1" t="s">
+      <c r="G172" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="G172" s="1" t="s">
+      <c r="H172" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="H172" s="1" t="s">
+      <c r="I172" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="I172" s="1" t="s">
-        <v>1053</v>
-      </c>
       <c r="J172" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="173" spans="1:10">
       <c r="A173" s="4" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>412</v>
       </c>
       <c r="C173" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D173" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="E173" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="E173" s="1" t="s">
+      <c r="F173" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="F173" s="1" t="s">
+      <c r="G173" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="G173" s="1" t="s">
+      <c r="H173" s="1" t="s">
         <v>1059</v>
-      </c>
-      <c r="H173" s="1" t="s">
-        <v>1060</v>
       </c>
       <c r="I173" s="1" t="s">
         <v>412</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="174" spans="1:10">
       <c r="A174" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B174" s="4" t="s">
         <v>1062</v>
       </c>
-      <c r="B174" s="4" t="s">
+      <c r="C174" s="3" t="s">
         <v>1063</v>
       </c>
-      <c r="C174" s="3" t="s">
+      <c r="D174" s="1" t="s">
         <v>1064</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="E174" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="E174" s="1" t="s">
+      <c r="F174" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="F174" s="1" t="s">
+      <c r="G174" s="1" t="s">
         <v>1067</v>
       </c>
-      <c r="G174" s="1" t="s">
+      <c r="H174" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="H174" s="1" t="s">
+      <c r="I174" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="I174" s="1" t="s">
+      <c r="J174" s="1" t="s">
         <v>1070</v>
-      </c>
-      <c r="J174" s="1" t="s">
-        <v>1071</v>
       </c>
     </row>
     <row r="175" s="1" customFormat="1" spans="1:10">
       <c r="A175" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B175" s="4" t="s">
         <v>1072</v>
       </c>
-      <c r="B175" s="4" t="s">
+      <c r="C175" s="3" t="s">
         <v>1073</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="D175" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="E175" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="E175" s="1" t="s">
+      <c r="F175" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="F175" s="1" t="s">
+      <c r="G175" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="G175" s="1" t="s">
+      <c r="H175" s="1" t="s">
         <v>1078</v>
       </c>
-      <c r="H175" s="1" t="s">
+      <c r="I175" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="J175" s="1" t="s">
         <v>1079</v>
-      </c>
-      <c r="I175" s="1" t="s">
-        <v>1073</v>
-      </c>
-      <c r="J175" s="1" t="s">
-        <v>1080</v>
       </c>
     </row>
     <row r="176" s="1" customFormat="1" spans="1:3">
@@ -26348,772 +26345,772 @@
     </row>
     <row r="177" spans="1:10">
       <c r="A177" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B177" s="4" t="s">
         <v>1081</v>
       </c>
-      <c r="B177" s="4" t="s">
+      <c r="C177" s="3" t="s">
         <v>1082</v>
       </c>
-      <c r="C177" s="3" t="s">
+      <c r="D177" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="E177" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="E177" s="1" t="s">
+      <c r="F177" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="F177" s="1" t="s">
+      <c r="G177" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="G177" s="1" t="s">
+      <c r="H177" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="H177" s="1" t="s">
+      <c r="I177" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="I177" s="1" t="s">
+      <c r="J177" s="1" t="s">
         <v>1089</v>
-      </c>
-      <c r="J177" s="1" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="178" spans="1:10">
       <c r="A178" s="4" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B178" s="4" t="s">
         <v>1091</v>
       </c>
-      <c r="B178" s="4" t="s">
+      <c r="C178" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="D178" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="E178" s="1" t="s">
         <v>1094</v>
       </c>
-      <c r="E178" s="1" t="s">
+      <c r="F178" s="1" t="s">
         <v>1095</v>
       </c>
-      <c r="F178" s="1" t="s">
+      <c r="G178" s="1" t="s">
         <v>1096</v>
       </c>
-      <c r="G178" s="1" t="s">
+      <c r="H178" s="1" t="s">
         <v>1097</v>
       </c>
-      <c r="H178" s="1" t="s">
+      <c r="I178" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="I178" s="1" t="s">
+      <c r="J178" s="1" t="s">
         <v>1099</v>
-      </c>
-      <c r="J178" s="1" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="179" spans="1:10">
       <c r="A179" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B179" s="4" t="s">
         <v>1101</v>
       </c>
-      <c r="B179" s="4" t="s">
+      <c r="C179" s="3" t="s">
         <v>1102</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="D179" s="1" t="s">
         <v>1103</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="E179" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="E179" s="1" t="s">
+      <c r="F179" s="1" t="s">
         <v>1105</v>
       </c>
-      <c r="F179" s="1" t="s">
+      <c r="G179" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="G179" s="1" t="s">
+      <c r="H179" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="H179" s="1" t="s">
+      <c r="I179" s="1" t="s">
         <v>1108</v>
       </c>
-      <c r="I179" s="1" t="s">
+      <c r="J179" s="1" t="s">
         <v>1109</v>
-      </c>
-      <c r="J179" s="1" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="180" ht="32" spans="1:10">
       <c r="A180" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B180" s="4" t="s">
         <v>1111</v>
       </c>
-      <c r="B180" s="4" t="s">
+      <c r="C180" s="3" t="s">
         <v>1112</v>
       </c>
-      <c r="C180" s="3" t="s">
+      <c r="D180" s="1" t="s">
         <v>1113</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="E180" s="1" t="s">
         <v>1114</v>
       </c>
-      <c r="E180" s="1" t="s">
+      <c r="F180" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="F180" s="1" t="s">
+      <c r="G180" s="1" t="s">
         <v>1116</v>
       </c>
-      <c r="G180" s="1" t="s">
+      <c r="H180" s="1" t="s">
         <v>1117</v>
       </c>
-      <c r="H180" s="1" t="s">
+      <c r="I180" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="I180" s="1" t="s">
+      <c r="J180" s="1" t="s">
         <v>1119</v>
-      </c>
-      <c r="J180" s="1" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="181" ht="32" spans="1:10">
       <c r="A181" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B181" s="4" t="s">
         <v>1121</v>
       </c>
-      <c r="B181" s="4" t="s">
+      <c r="C181" s="3" t="s">
         <v>1122</v>
       </c>
-      <c r="C181" s="3" t="s">
+      <c r="D181" s="1" t="s">
         <v>1123</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="E181" s="1" t="s">
         <v>1124</v>
       </c>
-      <c r="E181" s="1" t="s">
+      <c r="F181" s="1" t="s">
         <v>1125</v>
       </c>
-      <c r="F181" s="1" t="s">
+      <c r="G181" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="G181" s="1" t="s">
+      <c r="H181" s="1" t="s">
         <v>1127</v>
       </c>
-      <c r="H181" s="1" t="s">
+      <c r="I181" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="I181" s="1" t="s">
+      <c r="J181" s="1" t="s">
         <v>1129</v>
-      </c>
-      <c r="J181" s="1" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="183" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A183" s="10" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B183" s="4"/>
       <c r="C183" s="3"/>
     </row>
     <row r="184" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A184" s="10" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B184" s="4"/>
       <c r="C184" s="3"/>
     </row>
     <row r="185" spans="1:10">
       <c r="A185" s="4" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B185" s="4" t="s">
         <v>1133</v>
       </c>
-      <c r="B185" s="4" t="s">
+      <c r="C185" s="3" t="s">
         <v>1134</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="D185" s="1" t="s">
         <v>1135</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="E185" s="1" t="s">
         <v>1136</v>
       </c>
-      <c r="E185" s="1" t="s">
+      <c r="F185" s="1" t="s">
         <v>1137</v>
       </c>
-      <c r="F185" s="1" t="s">
+      <c r="G185" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="G185" s="1" t="s">
+      <c r="H185" s="1" t="s">
         <v>1139</v>
       </c>
-      <c r="H185" s="1" t="s">
+      <c r="I185" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="I185" s="1" t="s">
+      <c r="J185" s="1" t="s">
         <v>1141</v>
-      </c>
-      <c r="J185" s="1" t="s">
-        <v>1142</v>
       </c>
     </row>
     <row r="186" customFormat="1" ht="18" spans="1:10">
       <c r="A186" s="15" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B186" s="15" t="s">
         <v>1143</v>
       </c>
-      <c r="B186" s="15" t="s">
+      <c r="C186" s="19" t="s">
         <v>1144</v>
       </c>
-      <c r="C186" s="19" t="s">
+      <c r="D186" s="17" t="s">
         <v>1145</v>
       </c>
-      <c r="D186" s="17" t="s">
+      <c r="E186" s="17" t="s">
         <v>1146</v>
       </c>
-      <c r="E186" s="17" t="s">
+      <c r="F186" s="17" t="s">
         <v>1147</v>
       </c>
-      <c r="F186" s="17" t="s">
+      <c r="G186" s="17" t="s">
         <v>1148</v>
       </c>
-      <c r="G186" s="17" t="s">
+      <c r="H186" t="s">
         <v>1149</v>
       </c>
-      <c r="H186" t="s">
+      <c r="I186" t="s">
         <v>1150</v>
       </c>
-      <c r="I186" t="s">
+      <c r="J186" s="22" t="s">
         <v>1151</v>
-      </c>
-      <c r="J186" s="22" t="s">
-        <v>1152</v>
       </c>
     </row>
     <row r="187" spans="1:10">
       <c r="A187" s="4" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B187" s="4" t="s">
         <v>1153</v>
       </c>
-      <c r="B187" s="4" t="s">
+      <c r="C187" s="3" t="s">
         <v>1154</v>
       </c>
-      <c r="C187" s="3" t="s">
+      <c r="D187" s="1" t="s">
         <v>1155</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="E187" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="E187" s="1" t="s">
+      <c r="F187" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G187" s="1" t="s">
         <v>1157</v>
       </c>
-      <c r="F187" s="1" t="s">
-        <v>1155</v>
-      </c>
-      <c r="G187" s="1" t="s">
+      <c r="H187" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="H187" s="1" t="s">
+      <c r="I187" s="1" t="s">
         <v>1159</v>
       </c>
-      <c r="I187" s="1" t="s">
+      <c r="J187" s="1" t="s">
         <v>1160</v>
-      </c>
-      <c r="J187" s="1" t="s">
-        <v>1161</v>
       </c>
     </row>
     <row r="188" spans="1:10">
       <c r="A188" s="4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B188" s="4" t="s">
         <v>1162</v>
       </c>
-      <c r="B188" s="4" t="s">
+      <c r="C188" s="3" t="s">
         <v>1163</v>
       </c>
-      <c r="C188" s="3" t="s">
+      <c r="D188" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="D188" s="1" t="s">
+      <c r="E188" s="1" t="s">
         <v>1165</v>
       </c>
-      <c r="E188" s="1" t="s">
+      <c r="F188" s="1" t="s">
         <v>1166</v>
       </c>
-      <c r="F188" s="1" t="s">
+      <c r="G188" s="1" t="s">
         <v>1167</v>
       </c>
-      <c r="G188" s="1" t="s">
+      <c r="H188" s="1" t="s">
         <v>1168</v>
       </c>
-      <c r="H188" s="1" t="s">
+      <c r="I188" s="1" t="s">
         <v>1169</v>
       </c>
-      <c r="I188" s="1" t="s">
-        <v>1170</v>
-      </c>
       <c r="J188" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="189" spans="1:10">
       <c r="A189" s="4" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B189" s="4" t="s">
         <v>1171</v>
       </c>
-      <c r="B189" s="4" t="s">
+      <c r="C189" s="3" t="s">
         <v>1172</v>
       </c>
-      <c r="C189" s="3" t="s">
+      <c r="D189" s="1" t="s">
         <v>1173</v>
       </c>
-      <c r="D189" s="1" t="s">
+      <c r="E189" s="1" t="s">
         <v>1174</v>
       </c>
-      <c r="E189" s="1" t="s">
+      <c r="F189" s="1" t="s">
         <v>1175</v>
       </c>
-      <c r="F189" s="1" t="s">
+      <c r="G189" s="1" t="s">
         <v>1176</v>
       </c>
-      <c r="G189" s="1" t="s">
+      <c r="H189" s="1" t="s">
         <v>1177</v>
       </c>
-      <c r="H189" s="1" t="s">
+      <c r="I189" s="1" t="s">
         <v>1178</v>
       </c>
-      <c r="I189" s="1" t="s">
-        <v>1179</v>
-      </c>
       <c r="J189" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="190" spans="1:10">
       <c r="A190" s="4" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B190" s="4" t="s">
         <v>1180</v>
       </c>
-      <c r="B190" s="4" t="s">
+      <c r="C190" s="3" t="s">
         <v>1181</v>
       </c>
-      <c r="C190" s="3" t="s">
+      <c r="D190" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E190" s="1" t="s">
         <v>1182</v>
       </c>
-      <c r="D190" s="1" t="s">
-        <v>1182</v>
-      </c>
-      <c r="E190" s="1" t="s">
+      <c r="F190" s="1" t="s">
         <v>1183</v>
       </c>
-      <c r="F190" s="1" t="s">
+      <c r="G190" s="1" t="s">
         <v>1184</v>
       </c>
-      <c r="G190" s="1" t="s">
+      <c r="H190" s="1" t="s">
         <v>1185</v>
       </c>
-      <c r="H190" s="1" t="s">
+      <c r="I190" s="1" t="s">
         <v>1186</v>
       </c>
-      <c r="I190" s="1" t="s">
+      <c r="J190" s="1" t="s">
         <v>1187</v>
-      </c>
-      <c r="J190" s="1" t="s">
-        <v>1188</v>
       </c>
     </row>
     <row r="191" spans="1:10">
       <c r="A191" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B191" s="4" t="s">
         <v>1189</v>
       </c>
-      <c r="B191" s="4" t="s">
+      <c r="C191" s="3" t="s">
         <v>1190</v>
       </c>
-      <c r="C191" s="3" t="s">
+      <c r="D191" s="1" t="s">
         <v>1191</v>
       </c>
-      <c r="D191" s="1" t="s">
+      <c r="E191" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="E191" s="1" t="s">
+      <c r="F191" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="F191" s="1" t="s">
+      <c r="G191" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="G191" s="1" t="s">
+      <c r="H191" s="1" t="s">
         <v>1195</v>
       </c>
-      <c r="H191" s="1" t="s">
+      <c r="I191" s="1" t="s">
         <v>1196</v>
       </c>
-      <c r="I191" s="1" t="s">
+      <c r="J191" s="1" t="s">
         <v>1197</v>
-      </c>
-      <c r="J191" s="1" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="192" spans="1:10">
       <c r="A192" s="4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B192" s="4" t="s">
         <v>1199</v>
       </c>
-      <c r="B192" s="4" t="s">
+      <c r="C192" s="3" t="s">
         <v>1200</v>
       </c>
-      <c r="C192" s="3" t="s">
+      <c r="D192" s="1" t="s">
         <v>1201</v>
       </c>
-      <c r="D192" s="1" t="s">
+      <c r="E192" s="1" t="s">
         <v>1202</v>
       </c>
-      <c r="E192" s="1" t="s">
+      <c r="F192" s="1" t="s">
         <v>1203</v>
       </c>
-      <c r="F192" s="1" t="s">
+      <c r="G192" s="1" t="s">
         <v>1204</v>
       </c>
-      <c r="G192" s="1" t="s">
+      <c r="H192" s="1" t="s">
         <v>1205</v>
       </c>
-      <c r="H192" s="1" t="s">
-        <v>1206</v>
-      </c>
       <c r="I192" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="193" spans="1:10">
       <c r="A193" s="4" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B193" s="4" t="s">
         <v>1207</v>
       </c>
-      <c r="B193" s="4" t="s">
+      <c r="C193" s="3" t="s">
         <v>1208</v>
       </c>
-      <c r="C193" s="3" t="s">
+      <c r="D193" s="1" t="s">
         <v>1209</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="E193" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="E193" s="1" t="s">
+      <c r="F193" s="1" t="s">
         <v>1211</v>
       </c>
-      <c r="F193" s="1" t="s">
+      <c r="G193" s="1" t="s">
         <v>1212</v>
       </c>
-      <c r="G193" s="1" t="s">
+      <c r="H193" s="1" t="s">
         <v>1213</v>
       </c>
-      <c r="H193" s="1" t="s">
+      <c r="I193" s="1" t="s">
         <v>1214</v>
       </c>
-      <c r="I193" s="1" t="s">
+      <c r="J193" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="J193" s="1" t="s">
-        <v>1216</v>
       </c>
     </row>
     <row r="194" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A194" s="10" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B194" s="4"/>
       <c r="C194" s="3"/>
     </row>
     <row r="195" spans="1:10">
       <c r="A195" s="4" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B195" s="4" t="s">
         <v>1218</v>
       </c>
-      <c r="B195" s="4" t="s">
+      <c r="C195" s="3" t="s">
         <v>1219</v>
       </c>
-      <c r="C195" s="3" t="s">
+      <c r="D195" s="1" t="s">
         <v>1220</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="E195" s="1" t="s">
         <v>1221</v>
       </c>
-      <c r="E195" s="1" t="s">
+      <c r="F195" s="1" t="s">
         <v>1222</v>
       </c>
-      <c r="F195" s="1" t="s">
+      <c r="G195" s="1" t="s">
         <v>1223</v>
       </c>
-      <c r="G195" s="1" t="s">
+      <c r="H195" s="1" t="s">
         <v>1224</v>
       </c>
-      <c r="H195" s="1" t="s">
+      <c r="I195" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="I195" s="1" t="s">
+      <c r="J195" s="1" t="s">
         <v>1226</v>
-      </c>
-      <c r="J195" s="1" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="196" ht="48" spans="1:10">
       <c r="A196" s="4" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B196" s="4" t="s">
         <v>1228</v>
       </c>
-      <c r="B196" s="4" t="s">
+      <c r="C196" s="3" t="s">
         <v>1229</v>
       </c>
-      <c r="C196" s="3" t="s">
+      <c r="D196" s="1" t="s">
         <v>1230</v>
       </c>
-      <c r="D196" s="1" t="s">
+      <c r="E196" s="1" t="s">
         <v>1231</v>
       </c>
-      <c r="E196" s="1" t="s">
+      <c r="F196" s="1" t="s">
         <v>1232</v>
       </c>
-      <c r="F196" s="1" t="s">
+      <c r="G196" s="1" t="s">
         <v>1233</v>
       </c>
-      <c r="G196" s="1" t="s">
+      <c r="H196" s="1" t="s">
         <v>1234</v>
       </c>
-      <c r="H196" s="1" t="s">
+      <c r="I196" s="1" t="s">
         <v>1235</v>
       </c>
-      <c r="I196" s="1" t="s">
+      <c r="J196" s="1" t="s">
         <v>1236</v>
-      </c>
-      <c r="J196" s="1" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="10" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B197" s="4"/>
     </row>
     <row r="198" ht="48" spans="1:10">
       <c r="A198" s="4" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B198" s="4" t="s">
         <v>1239</v>
       </c>
-      <c r="B198" s="4" t="s">
+      <c r="C198" s="3" t="s">
         <v>1240</v>
       </c>
-      <c r="C198" s="3" t="s">
+      <c r="D198" s="1" t="s">
         <v>1241</v>
       </c>
-      <c r="D198" s="1" t="s">
+      <c r="E198" s="1" t="s">
         <v>1242</v>
       </c>
-      <c r="E198" s="1" t="s">
+      <c r="F198" s="1" t="s">
         <v>1243</v>
       </c>
-      <c r="F198" s="1" t="s">
+      <c r="G198" s="1" t="s">
         <v>1244</v>
       </c>
-      <c r="G198" s="1" t="s">
+      <c r="H198" s="1" t="s">
         <v>1245</v>
       </c>
-      <c r="H198" s="1" t="s">
+      <c r="I198" s="1" t="s">
         <v>1246</v>
       </c>
-      <c r="I198" s="1" t="s">
+      <c r="J198" s="1" t="s">
         <v>1247</v>
-      </c>
-      <c r="J198" s="1" t="s">
-        <v>1248</v>
       </c>
     </row>
     <row r="199" s="1" customFormat="1" ht="32" spans="1:10">
       <c r="A199" s="4" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B199" s="4" t="s">
         <v>1249</v>
       </c>
-      <c r="B199" s="4" t="s">
+      <c r="C199" s="3" t="s">
         <v>1250</v>
       </c>
-      <c r="C199" s="3" t="s">
+      <c r="D199" s="1" t="s">
         <v>1251</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="E199" s="1" t="s">
         <v>1252</v>
       </c>
-      <c r="E199" s="1" t="s">
+      <c r="F199" s="1" t="s">
         <v>1253</v>
       </c>
-      <c r="F199" s="1" t="s">
+      <c r="G199" s="1" t="s">
         <v>1254</v>
       </c>
-      <c r="G199" s="1" t="s">
+      <c r="H199" s="1" t="s">
         <v>1255</v>
       </c>
-      <c r="H199" s="1" t="s">
+      <c r="I199" s="1" t="s">
         <v>1256</v>
       </c>
-      <c r="I199" s="1" t="s">
+      <c r="J199" s="1" t="s">
         <v>1257</v>
-      </c>
-      <c r="J199" s="1" t="s">
-        <v>1258</v>
       </c>
     </row>
     <row r="200" s="1" customFormat="1" spans="1:3">
       <c r="A200" s="10" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B200" s="4"/>
       <c r="C200" s="3"/>
     </row>
     <row r="201" ht="32" spans="1:10">
       <c r="A201" s="4" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B201" s="4" t="s">
         <v>1260</v>
       </c>
-      <c r="B201" s="4" t="s">
+      <c r="C201" s="3" t="s">
         <v>1261</v>
       </c>
-      <c r="C201" s="3" t="s">
+      <c r="D201" s="1" t="s">
         <v>1262</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="E201" s="1" t="s">
         <v>1263</v>
       </c>
-      <c r="E201" s="1" t="s">
+      <c r="F201" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="F201" s="1" t="s">
+      <c r="G201" s="1" t="s">
         <v>1265</v>
       </c>
-      <c r="G201" s="1" t="s">
+      <c r="H201" s="1" t="s">
         <v>1266</v>
       </c>
-      <c r="H201" s="1" t="s">
+      <c r="I201" s="1" t="s">
         <v>1267</v>
       </c>
-      <c r="I201" s="1" t="s">
+      <c r="J201" s="1" t="s">
         <v>1268</v>
-      </c>
-      <c r="J201" s="1" t="s">
-        <v>1269</v>
       </c>
     </row>
     <row r="202" ht="32" spans="1:10">
       <c r="A202" s="4" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B202" s="4" t="s">
         <v>1270</v>
       </c>
-      <c r="B202" s="4" t="s">
+      <c r="C202" s="3" t="s">
         <v>1271</v>
       </c>
-      <c r="C202" s="3" t="s">
+      <c r="D202" s="1" t="s">
         <v>1272</v>
       </c>
-      <c r="D202" s="1" t="s">
+      <c r="E202" s="1" t="s">
         <v>1273</v>
       </c>
-      <c r="E202" s="1" t="s">
+      <c r="F202" s="1" t="s">
         <v>1274</v>
       </c>
-      <c r="F202" s="1" t="s">
+      <c r="G202" s="1" t="s">
         <v>1275</v>
       </c>
-      <c r="G202" s="1" t="s">
+      <c r="H202" s="1" t="s">
         <v>1276</v>
       </c>
-      <c r="H202" s="1" t="s">
+      <c r="I202" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="I202" s="1" t="s">
+      <c r="J202" s="1" t="s">
         <v>1278</v>
-      </c>
-      <c r="J202" s="1" t="s">
-        <v>1279</v>
       </c>
     </row>
     <row r="203" ht="48" spans="1:10">
       <c r="A203" s="4" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B203" s="4" t="s">
         <v>1280</v>
       </c>
-      <c r="B203" s="4" t="s">
+      <c r="C203" s="3" t="s">
         <v>1281</v>
       </c>
-      <c r="C203" s="3" t="s">
+      <c r="D203" s="1" t="s">
         <v>1282</v>
       </c>
-      <c r="D203" s="1" t="s">
+      <c r="E203" s="1" t="s">
         <v>1283</v>
       </c>
-      <c r="E203" s="1" t="s">
+      <c r="F203" s="1" t="s">
         <v>1284</v>
       </c>
-      <c r="F203" s="1" t="s">
+      <c r="G203" s="1" t="s">
         <v>1285</v>
       </c>
-      <c r="G203" s="1" t="s">
+      <c r="H203" s="1" t="s">
         <v>1286</v>
       </c>
-      <c r="H203" s="1" t="s">
+      <c r="I203" s="1" t="s">
         <v>1287</v>
       </c>
-      <c r="I203" s="1" t="s">
+      <c r="J203" s="1" t="s">
         <v>1288</v>
-      </c>
-      <c r="J203" s="1" t="s">
-        <v>1289</v>
       </c>
     </row>
     <row r="204" ht="32" spans="1:10">
       <c r="A204" s="4" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B204" s="4" t="s">
         <v>1290</v>
       </c>
-      <c r="B204" s="4" t="s">
+      <c r="C204" s="3" t="s">
         <v>1291</v>
       </c>
-      <c r="C204" s="3" t="s">
+      <c r="D204" s="1" t="s">
         <v>1292</v>
       </c>
-      <c r="D204" s="1" t="s">
+      <c r="E204" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="E204" s="1" t="s">
+      <c r="F204" s="1" t="s">
         <v>1294</v>
       </c>
-      <c r="F204" s="1" t="s">
+      <c r="G204" s="1" t="s">
         <v>1295</v>
       </c>
-      <c r="G204" s="1" t="s">
+      <c r="H204" s="1" t="s">
         <v>1296</v>
       </c>
-      <c r="H204" s="1" t="s">
+      <c r="I204" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="I204" s="1" t="s">
+      <c r="J204" s="1" t="s">
         <v>1298</v>
-      </c>
-      <c r="J204" s="1" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="205" spans="1:10">
       <c r="A205" s="4" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B205" s="4" t="s">
         <v>1300</v>
       </c>
-      <c r="B205" s="4" t="s">
+      <c r="C205" s="3" t="s">
         <v>1301</v>
       </c>
-      <c r="C205" s="3" t="s">
+      <c r="D205" s="1" t="s">
         <v>1302</v>
       </c>
-      <c r="D205" s="1" t="s">
+      <c r="E205" s="1" t="s">
         <v>1303</v>
       </c>
-      <c r="E205" s="1" t="s">
+      <c r="F205" s="1" t="s">
         <v>1304</v>
       </c>
-      <c r="F205" s="1" t="s">
+      <c r="G205" s="1" t="s">
         <v>1305</v>
       </c>
-      <c r="G205" s="1" t="s">
+      <c r="H205" s="1" t="s">
         <v>1306</v>
       </c>
-      <c r="H205" s="1" t="s">
+      <c r="I205" s="1" t="s">
         <v>1307</v>
       </c>
-      <c r="I205" s="1" t="s">
+      <c r="J205" s="1" t="s">
         <v>1308</v>
-      </c>
-      <c r="J205" s="1" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="206" s="1" customFormat="1" customHeight="1" spans="1:3">
@@ -27123,7 +27120,7 @@
     </row>
     <row r="207" s="1" customFormat="1" customHeight="1" spans="1:16384">
       <c r="A207" s="10" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -43511,89 +43508,89 @@
     </row>
     <row r="208" customHeight="1" spans="1:3">
       <c r="A208" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B208" s="4" t="s">
         <v>1311</v>
-      </c>
-      <c r="B208" s="4" t="s">
-        <v>1312</v>
       </c>
       <c r="C208" s="1"/>
     </row>
     <row r="209" customHeight="1" spans="1:3">
       <c r="A209" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B209" s="4" t="s">
         <v>1313</v>
-      </c>
-      <c r="B209" s="4" t="s">
-        <v>1314</v>
       </c>
       <c r="C209" s="1"/>
     </row>
     <row r="210" spans="1:10">
       <c r="A210" s="4" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B210" s="4" t="s">
         <v>1315</v>
       </c>
-      <c r="B210" s="4" t="s">
+      <c r="C210" s="3" t="s">
         <v>1316</v>
       </c>
-      <c r="C210" s="3" t="s">
+      <c r="D210" s="1" t="s">
         <v>1317</v>
       </c>
-      <c r="D210" s="1" t="s">
+      <c r="E210" s="1" t="s">
         <v>1318</v>
       </c>
-      <c r="E210" s="1" t="s">
+      <c r="F210" s="1" t="s">
         <v>1319</v>
       </c>
-      <c r="F210" s="1" t="s">
+      <c r="G210" s="1" t="s">
         <v>1320</v>
       </c>
-      <c r="G210" s="1" t="s">
+      <c r="H210" s="1" t="s">
         <v>1321</v>
       </c>
-      <c r="H210" s="1" t="s">
+      <c r="I210" s="1" t="s">
         <v>1322</v>
       </c>
-      <c r="I210" s="1" t="s">
+      <c r="J210" s="1" t="s">
         <v>1323</v>
-      </c>
-      <c r="J210" s="1" t="s">
-        <v>1324</v>
       </c>
     </row>
     <row r="211" spans="1:10">
       <c r="A211" s="4" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B211" s="4" t="s">
         <v>1325</v>
       </c>
-      <c r="B211" s="4" t="s">
+      <c r="C211" s="3" t="s">
         <v>1326</v>
       </c>
-      <c r="C211" s="3" t="s">
+      <c r="D211" s="1" t="s">
         <v>1327</v>
       </c>
-      <c r="D211" s="1" t="s">
+      <c r="E211" s="1" t="s">
         <v>1328</v>
       </c>
-      <c r="E211" s="1" t="s">
+      <c r="F211" s="1" t="s">
         <v>1329</v>
       </c>
-      <c r="F211" s="1" t="s">
+      <c r="G211" s="1" t="s">
         <v>1330</v>
       </c>
-      <c r="G211" s="1" t="s">
+      <c r="H211" s="1" t="s">
         <v>1331</v>
       </c>
-      <c r="H211" s="1" t="s">
+      <c r="I211" s="1" t="s">
         <v>1332</v>
       </c>
-      <c r="I211" s="1" t="s">
+      <c r="J211" s="1" t="s">
         <v>1333</v>
-      </c>
-      <c r="J211" s="1" t="s">
-        <v>1334</v>
       </c>
     </row>
     <row r="212" customFormat="1" ht="18" spans="1:10">
       <c r="A212" s="15" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B212" s="15" t="s">
         <v>245</v>
@@ -43625,7 +43622,7 @@
     </row>
     <row r="213" customFormat="1" ht="18" spans="1:10">
       <c r="A213" s="15" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B213" s="15" t="s">
         <v>216</v>
@@ -43666,263 +43663,263 @@
     </row>
     <row r="215" customHeight="1" spans="1:1">
       <c r="A215" s="10" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="216" spans="1:10">
       <c r="A216" s="4" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B216" s="4" t="s">
         <v>1338</v>
       </c>
-      <c r="B216" s="4" t="s">
+      <c r="C216" s="3" t="s">
         <v>1339</v>
       </c>
-      <c r="C216" s="3" t="s">
+      <c r="D216" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="D216" s="1" t="s">
+      <c r="E216" s="1" t="s">
         <v>1341</v>
       </c>
-      <c r="E216" s="1" t="s">
+      <c r="F216" s="1" t="s">
         <v>1342</v>
       </c>
-      <c r="F216" s="1" t="s">
+      <c r="G216" s="1" t="s">
         <v>1343</v>
       </c>
-      <c r="G216" s="1" t="s">
+      <c r="H216" s="1" t="s">
         <v>1344</v>
       </c>
-      <c r="H216" s="1" t="s">
+      <c r="I216" s="1" t="s">
         <v>1345</v>
       </c>
-      <c r="I216" s="1" t="s">
+      <c r="J216" s="12" t="s">
         <v>1346</v>
-      </c>
-      <c r="J216" s="12" t="s">
-        <v>1347</v>
       </c>
     </row>
     <row r="217" spans="1:10">
       <c r="A217" s="4" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B217" s="4" t="s">
         <v>1348</v>
       </c>
-      <c r="B217" s="4" t="s">
+      <c r="C217" s="3" t="s">
         <v>1349</v>
       </c>
-      <c r="C217" s="3" t="s">
+      <c r="D217" s="1" t="s">
         <v>1350</v>
       </c>
-      <c r="D217" s="1" t="s">
+      <c r="E217" s="1" t="s">
         <v>1351</v>
       </c>
-      <c r="E217" s="1" t="s">
+      <c r="F217" s="1" t="s">
         <v>1352</v>
       </c>
-      <c r="F217" s="1" t="s">
+      <c r="G217" s="1" t="s">
         <v>1353</v>
       </c>
-      <c r="G217" s="1" t="s">
+      <c r="H217" s="1" t="s">
         <v>1354</v>
       </c>
-      <c r="H217" s="1" t="s">
+      <c r="I217" s="1" t="s">
         <v>1355</v>
       </c>
-      <c r="I217" s="1" t="s">
+      <c r="J217" s="12" t="s">
         <v>1356</v>
-      </c>
-      <c r="J217" s="12" t="s">
-        <v>1357</v>
       </c>
     </row>
     <row r="218" spans="1:10">
       <c r="A218" s="4" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B218" s="4" t="s">
         <v>1358</v>
       </c>
-      <c r="B218" s="4" t="s">
+      <c r="C218" s="3" t="s">
         <v>1359</v>
       </c>
-      <c r="C218" s="3" t="s">
+      <c r="D218" s="1" t="s">
         <v>1360</v>
       </c>
-      <c r="D218" s="1" t="s">
+      <c r="E218" s="1" t="s">
         <v>1361</v>
       </c>
-      <c r="E218" s="1" t="s">
+      <c r="F218" s="1" t="s">
         <v>1362</v>
       </c>
-      <c r="F218" s="1" t="s">
+      <c r="G218" s="1" t="s">
         <v>1363</v>
       </c>
-      <c r="G218" s="1" t="s">
+      <c r="H218" s="1" t="s">
         <v>1364</v>
       </c>
-      <c r="H218" s="1" t="s">
+      <c r="I218" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="I218" s="1" t="s">
+      <c r="J218" s="1" t="s">
         <v>1366</v>
-      </c>
-      <c r="J218" s="1" t="s">
-        <v>1367</v>
       </c>
     </row>
     <row r="219" spans="1:10">
       <c r="A219" s="4" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B219" s="4" t="s">
         <v>1368</v>
       </c>
-      <c r="B219" s="4" t="s">
+      <c r="C219" s="3" t="s">
         <v>1369</v>
       </c>
-      <c r="C219" s="3" t="s">
+      <c r="D219" s="1" t="s">
         <v>1370</v>
       </c>
-      <c r="D219" s="1" t="s">
+      <c r="E219" s="1" t="s">
         <v>1371</v>
       </c>
-      <c r="E219" s="1" t="s">
+      <c r="F219" s="1" t="s">
         <v>1372</v>
       </c>
-      <c r="F219" s="1" t="s">
+      <c r="G219" s="1" t="s">
         <v>1373</v>
       </c>
-      <c r="G219" s="1" t="s">
+      <c r="H219" s="1" t="s">
         <v>1374</v>
       </c>
-      <c r="H219" s="1" t="s">
+      <c r="I219" s="1" t="s">
         <v>1375</v>
       </c>
-      <c r="I219" s="1" t="s">
+      <c r="J219" s="1" t="s">
         <v>1376</v>
-      </c>
-      <c r="J219" s="1" t="s">
-        <v>1377</v>
       </c>
     </row>
     <row r="220" spans="1:10">
       <c r="A220" s="4" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B220" s="4" t="s">
         <v>354</v>
       </c>
       <c r="C220" s="3" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D220" s="1" t="s">
         <v>1379</v>
       </c>
-      <c r="D220" s="1" t="s">
+      <c r="E220" s="1" t="s">
         <v>1380</v>
       </c>
-      <c r="E220" s="1" t="s">
+      <c r="F220" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="G220" s="1" t="s">
         <v>1381</v>
       </c>
-      <c r="F220" s="1" t="s">
-        <v>1343</v>
-      </c>
-      <c r="G220" s="1" t="s">
+      <c r="H220" s="1" t="s">
         <v>1382</v>
       </c>
-      <c r="H220" s="1" t="s">
+      <c r="I220" s="1" t="s">
         <v>1383</v>
       </c>
-      <c r="I220" s="1" t="s">
+      <c r="J220" s="1" t="s">
         <v>1384</v>
-      </c>
-      <c r="J220" s="1" t="s">
-        <v>1385</v>
       </c>
     </row>
     <row r="221" spans="1:10">
       <c r="A221" s="4" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B221" s="4" t="s">
         <v>1386</v>
       </c>
-      <c r="B221" s="4" t="s">
+      <c r="C221" s="3" t="s">
         <v>1387</v>
       </c>
-      <c r="C221" s="3" t="s">
+      <c r="D221" s="1" t="s">
         <v>1388</v>
       </c>
-      <c r="D221" s="1" t="s">
+      <c r="E221" s="1" t="s">
         <v>1389</v>
       </c>
-      <c r="E221" s="1" t="s">
+      <c r="F221" s="1" t="s">
         <v>1390</v>
       </c>
-      <c r="F221" s="1" t="s">
+      <c r="G221" s="1" t="s">
         <v>1391</v>
       </c>
-      <c r="G221" s="1" t="s">
+      <c r="H221" s="1" t="s">
         <v>1392</v>
       </c>
-      <c r="H221" s="1" t="s">
+      <c r="I221" s="1" t="s">
         <v>1393</v>
       </c>
-      <c r="I221" s="1" t="s">
+      <c r="J221" s="1" t="s">
         <v>1394</v>
-      </c>
-      <c r="J221" s="1" t="s">
-        <v>1395</v>
       </c>
     </row>
     <row r="222" spans="1:10">
       <c r="A222" s="4" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B222" s="4" t="s">
         <v>1396</v>
       </c>
-      <c r="B222" s="4" t="s">
+      <c r="C222" s="3" t="s">
         <v>1397</v>
       </c>
-      <c r="C222" s="3" t="s">
+      <c r="D222" s="1" t="s">
         <v>1398</v>
       </c>
-      <c r="D222" s="1" t="s">
+      <c r="E222" s="1" t="s">
         <v>1399</v>
       </c>
-      <c r="E222" s="1" t="s">
+      <c r="F222" s="1" t="s">
         <v>1400</v>
       </c>
-      <c r="F222" s="1" t="s">
+      <c r="G222" s="1" t="s">
         <v>1401</v>
       </c>
-      <c r="G222" s="1" t="s">
+      <c r="H222" s="1" t="s">
         <v>1402</v>
       </c>
-      <c r="H222" s="1" t="s">
+      <c r="I222" s="1" t="s">
         <v>1403</v>
       </c>
-      <c r="I222" s="1" t="s">
+      <c r="J222" s="1" t="s">
         <v>1404</v>
-      </c>
-      <c r="J222" s="1" t="s">
-        <v>1405</v>
       </c>
     </row>
     <row r="223" spans="1:10">
       <c r="A223" s="4" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B223" s="4" t="s">
         <v>1406</v>
       </c>
-      <c r="B223" s="4" t="s">
+      <c r="C223" s="3" t="s">
         <v>1407</v>
       </c>
-      <c r="C223" s="3" t="s">
+      <c r="D223" s="1" t="s">
         <v>1408</v>
       </c>
-      <c r="D223" s="1" t="s">
+      <c r="E223" s="1" t="s">
         <v>1409</v>
       </c>
-      <c r="E223" s="1" t="s">
+      <c r="F223" s="1" t="s">
         <v>1410</v>
       </c>
-      <c r="F223" s="1" t="s">
+      <c r="G223" s="1" t="s">
         <v>1411</v>
-      </c>
-      <c r="G223" s="1" t="s">
-        <v>1412</v>
       </c>
       <c r="H223" s="1" t="s">
         <v>385</v>
       </c>
       <c r="I223" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="J223" s="1" t="s">
         <v>1413</v>
-      </c>
-      <c r="J223" s="1" t="s">
-        <v>1414</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -43931,82 +43928,82 @@
     </row>
     <row r="225" customHeight="1" spans="1:2">
       <c r="A225" s="10" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B225" s="4"/>
     </row>
     <row r="226" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A226" s="1" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="C226" s="3"/>
     </row>
     <row r="227" s="1" customFormat="1" customHeight="1" spans="1:10">
       <c r="A227" s="4" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B227" s="4" t="s">
         <v>1417</v>
       </c>
-      <c r="B227" s="4" t="s">
+      <c r="C227" s="3" t="s">
         <v>1418</v>
       </c>
-      <c r="C227" s="3" t="s">
+      <c r="D227" s="1" t="s">
         <v>1419</v>
       </c>
-      <c r="D227" s="1" t="s">
+      <c r="E227" s="1" t="s">
         <v>1420</v>
       </c>
-      <c r="E227" s="1" t="s">
+      <c r="F227" s="1" t="s">
         <v>1421</v>
       </c>
-      <c r="F227" s="1" t="s">
+      <c r="G227" s="1" t="s">
         <v>1422</v>
       </c>
-      <c r="G227" s="1" t="s">
+      <c r="H227" s="1" t="s">
         <v>1423</v>
       </c>
-      <c r="H227" s="1" t="s">
+      <c r="I227" s="1" t="s">
         <v>1424</v>
       </c>
-      <c r="I227" s="1" t="s">
-        <v>1425</v>
-      </c>
       <c r="J227" s="1" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="228" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A228" s="1" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="C228" s="3"/>
     </row>
     <row r="229" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A229" s="4" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B229" s="4"/>
       <c r="C229" s="3"/>
     </row>
     <row r="230" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A230" s="1" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="C230" s="3"/>
     </row>
     <row r="231" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A231" s="1" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="C231" s="3"/>
     </row>
     <row r="232" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A232" s="1" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="C232" s="3"/>
     </row>
     <row r="233" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A233" s="1" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C233" s="3"/>
     </row>
@@ -44015,13 +44012,13 @@
     </row>
     <row r="235" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A235" s="1" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="C235" s="3"/>
     </row>
     <row r="236" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A236" s="1" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="C236" s="3"/>
     </row>
@@ -44030,55 +44027,55 @@
     </row>
     <row r="238" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A238" s="1" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="C238" s="3"/>
     </row>
     <row r="239" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A239" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C239" s="3"/>
     </row>
     <row r="240" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A240" s="1" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="C240" s="3"/>
     </row>
     <row r="241" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A241" s="1" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C241" s="3"/>
     </row>
     <row r="242" s="1" customFormat="1" customHeight="1" spans="1:10">
       <c r="A242" s="4" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B242" s="4" t="s">
         <v>113</v>
       </c>
       <c r="C242" s="3" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D242" s="1" t="s">
         <v>1439</v>
       </c>
-      <c r="D242" s="1" t="s">
+      <c r="E242" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="E242" s="1" t="s">
+      <c r="F242" s="1" t="s">
         <v>1441</v>
-      </c>
-      <c r="F242" s="1" t="s">
-        <v>1442</v>
       </c>
       <c r="G242" s="1" t="s">
         <v>118</v>
       </c>
       <c r="H242" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="I242" s="1" t="s">
         <v>1443</v>
-      </c>
-      <c r="I242" s="1" t="s">
-        <v>1444</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>121</v>
@@ -44089,19 +44086,19 @@
     </row>
     <row r="244" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A244" s="1" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="C244" s="3"/>
     </row>
     <row r="245" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A245" s="1" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="C245" s="3"/>
     </row>
     <row r="246" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A246" s="1" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="C246" s="3"/>
     </row>
@@ -44110,25 +44107,25 @@
     </row>
     <row r="248" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A248" s="1" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="C248" s="3"/>
     </row>
     <row r="249" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A249" s="1" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="C249" s="3"/>
     </row>
     <row r="250" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A250" s="1" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="C250" s="3"/>
     </row>
     <row r="251" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A251" s="1" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="C251" s="3"/>
     </row>
@@ -44137,13 +44134,13 @@
     </row>
     <row r="253" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A253" s="1" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="C253" s="3"/>
     </row>
     <row r="254" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A254" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="C254" s="3"/>
     </row>
@@ -44152,49 +44149,49 @@
     </row>
     <row r="256" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A256" s="1" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="C256" s="3"/>
     </row>
     <row r="257" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A257" s="1" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="C257" s="3"/>
     </row>
     <row r="258" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A258" s="1" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="C258" s="3"/>
     </row>
     <row r="259" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A259" s="1" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="C259" s="3"/>
     </row>
     <row r="260" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A260" s="1" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="C260" s="3"/>
     </row>
     <row r="261" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A261" s="1" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="C261" s="3"/>
     </row>
     <row r="262" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A262" s="1" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="C262" s="3"/>
     </row>
     <row r="263" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A263" s="1" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="C263" s="3"/>
     </row>
@@ -44236,7 +44233,7 @@
     </row>
     <row r="271" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A271" s="1" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="C271" s="3"/>
     </row>
@@ -44257,13 +44254,13 @@
     </row>
     <row r="275" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A275" s="1" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="C275" s="3"/>
     </row>
     <row r="276" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A276" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C276" s="3"/>
     </row>
@@ -44272,25 +44269,25 @@
     </row>
     <row r="278" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A278" s="1" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="C278" s="3"/>
     </row>
     <row r="279" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A279" s="1" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="C279" s="3"/>
     </row>
     <row r="280" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A280" s="1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="C280" s="3"/>
     </row>
     <row r="281" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A281" s="1" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="C281" s="3"/>
     </row>
@@ -44299,19 +44296,19 @@
     </row>
     <row r="283" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A283" s="1" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="C283" s="3"/>
     </row>
     <row r="284" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A284" s="1" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="C284" s="3"/>
     </row>
     <row r="285" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A285" s="1" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="C285" s="3"/>
     </row>

--- a/web/i18n.xlsx
+++ b/web/i18n.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13720"/>
+    <workbookView windowWidth="28800" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886">
   <si>
     <t>en</t>
   </si>
@@ -4499,6 +4499,27 @@
   </si>
   <si>
     <t>示例</t>
+  </si>
+  <si>
+    <t>Ejemplo</t>
+  </si>
+  <si>
+    <t>Esempio</t>
+  </si>
+  <si>
+    <t>Beispiel</t>
+  </si>
+  <si>
+    <t>Exemple</t>
+  </si>
+  <si>
+    <t>пример</t>
+  </si>
+  <si>
+    <t>모범</t>
+  </si>
+  <si>
+    <t>例え</t>
   </si>
   <si>
     <t>Exemplo</t>
@@ -9460,12 +9481,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="49">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -9541,6 +9562,26 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Malgun Gothic"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
@@ -9584,26 +9625,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9621,9 +9646,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9638,18 +9685,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9669,28 +9708,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
@@ -9698,15 +9715,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9719,9 +9754,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9776,25 +9817,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9806,13 +9829,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9830,7 +9871,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9842,25 +9907,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9872,85 +9985,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9988,15 +10029,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -10015,8 +10047,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10036,17 +10083,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10066,152 +10107,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10276,14 +10317,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -10294,8 +10335,14 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -10304,6 +10351,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10653,9 +10712,9 @@
   <dimension ref="A1:K349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B168" sqref="$A168:$XFD168"/>
+      <selection pane="bottomLeft" activeCell="A168" sqref="$A168:$XFD168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -15855,24 +15914,38 @@
       </c>
     </row>
     <row r="168" spans="1:11">
-      <c r="A168" s="1" t="s">
+      <c r="A168" s="22" t="s">
         <v>1407</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B168" s="22" t="s">
         <v>1408</v>
       </c>
-      <c r="C168" s="10"/>
-      <c r="D168" s="2"/>
-      <c r="E168" s="2"/>
-      <c r="F168" s="2"/>
-      <c r="G168" s="2"/>
-      <c r="H168" s="2"/>
-      <c r="I168" s="2"/>
-      <c r="J168" s="2" t="s">
+      <c r="C168" s="23" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D168" s="24" t="s">
+        <v>1410</v>
+      </c>
+      <c r="E168" s="24" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F168" s="24" t="s">
+        <v>1412</v>
+      </c>
+      <c r="G168" s="25" t="s">
+        <v>1413</v>
+      </c>
+      <c r="H168" s="26" t="s">
+        <v>1414</v>
+      </c>
+      <c r="I168" s="27" t="s">
+        <v>1415</v>
+      </c>
+      <c r="J168" s="24" t="s">
         <v>1408</v>
       </c>
-      <c r="K168" s="2" t="s">
-        <v>1409</v>
+      <c r="K168" s="24" t="s">
+        <v>1416</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -15890,7 +15963,7 @@
     </row>
     <row r="170" spans="1:11">
       <c r="A170" s="15" t="s">
-        <v>1410</v>
+        <v>1417</v>
       </c>
       <c r="B170" s="1"/>
       <c r="C170" s="10"/>
@@ -15905,387 +15978,387 @@
     </row>
     <row r="171" spans="1:11">
       <c r="A171" s="1" t="s">
-        <v>1411</v>
+        <v>1418</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>1412</v>
+        <v>1419</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>1413</v>
+        <v>1420</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>1414</v>
+        <v>1421</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>1411</v>
+        <v>1418</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>1411</v>
+        <v>1418</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>1415</v>
+        <v>1422</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>1416</v>
+        <v>1423</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>1417</v>
+        <v>1424</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>1418</v>
+        <v>1425</v>
       </c>
       <c r="K171" s="2" t="s">
-        <v>1419</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="172" spans="1:11">
       <c r="A172" s="1" t="s">
-        <v>1420</v>
+        <v>1427</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>1421</v>
+        <v>1428</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>1422</v>
+        <v>1429</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>1423</v>
+        <v>1430</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>1424</v>
+        <v>1431</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>1425</v>
+        <v>1432</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>1426</v>
+        <v>1433</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>1427</v>
+        <v>1434</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>1428</v>
+        <v>1435</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>1429</v>
+        <v>1436</v>
       </c>
       <c r="K172" s="2" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="173" spans="1:11">
       <c r="A173" s="1" t="s">
-        <v>1431</v>
+        <v>1438</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>1432</v>
+        <v>1439</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>1433</v>
+        <v>1440</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>1434</v>
+        <v>1441</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>1435</v>
+        <v>1442</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>1436</v>
+        <v>1443</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>1437</v>
+        <v>1444</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>1438</v>
+        <v>1445</v>
       </c>
       <c r="I173" s="2" t="s">
+        <v>1446</v>
+      </c>
+      <c r="J173" s="2" t="s">
         <v>1439</v>
       </c>
-      <c r="J173" s="2" t="s">
-        <v>1432</v>
-      </c>
       <c r="K173" s="2" t="s">
-        <v>1440</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="174" spans="1:11">
       <c r="A174" s="1" t="s">
-        <v>1441</v>
+        <v>1448</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>1442</v>
+        <v>1449</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>1443</v>
+        <v>1450</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>1444</v>
+        <v>1451</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>1445</v>
+        <v>1452</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>1441</v>
+        <v>1448</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>1446</v>
+        <v>1453</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>1447</v>
+        <v>1454</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>1448</v>
+        <v>1455</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>1449</v>
+        <v>1456</v>
       </c>
       <c r="K174" s="2" t="s">
-        <v>1450</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="175" spans="1:11">
       <c r="A175" s="1" t="s">
-        <v>1451</v>
+        <v>1458</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>1452</v>
+        <v>1459</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>1453</v>
+        <v>1460</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>1454</v>
+        <v>1461</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>1455</v>
+        <v>1462</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>1456</v>
+        <v>1463</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>1457</v>
+        <v>1464</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>1458</v>
+        <v>1465</v>
       </c>
       <c r="I175" s="2" t="s">
+        <v>1466</v>
+      </c>
+      <c r="J175" s="2" t="s">
         <v>1459</v>
       </c>
-      <c r="J175" s="2" t="s">
-        <v>1452</v>
-      </c>
       <c r="K175" s="2" t="s">
-        <v>1460</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="176" spans="1:11">
       <c r="A176" s="1" t="s">
-        <v>1461</v>
+        <v>1468</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>1462</v>
+        <v>1469</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>1463</v>
+        <v>1470</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>1464</v>
+        <v>1471</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>1465</v>
+        <v>1472</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>1466</v>
+        <v>1473</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>1467</v>
+        <v>1474</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>1468</v>
+        <v>1475</v>
       </c>
       <c r="I176" s="2" t="s">
+        <v>1476</v>
+      </c>
+      <c r="J176" s="2" t="s">
         <v>1469</v>
       </c>
-      <c r="J176" s="2" t="s">
-        <v>1462</v>
-      </c>
       <c r="K176" s="2" t="s">
-        <v>1470</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="177" spans="1:11">
       <c r="A177" s="1" t="s">
-        <v>1471</v>
+        <v>1478</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>1472</v>
+        <v>1479</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>1473</v>
+        <v>1480</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>1474</v>
+        <v>1481</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>1475</v>
+        <v>1482</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>1476</v>
+        <v>1483</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>1477</v>
+        <v>1484</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>1478</v>
+        <v>1485</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>1479</v>
+        <v>1486</v>
       </c>
       <c r="J177" s="2" t="s">
-        <v>1480</v>
+        <v>1487</v>
       </c>
       <c r="K177" s="2" t="s">
-        <v>1481</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="178" spans="1:11">
       <c r="A178" s="1" t="s">
-        <v>1482</v>
+        <v>1489</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>1483</v>
+        <v>1490</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>1484</v>
+        <v>1491</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>1485</v>
+        <v>1492</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>1486</v>
+        <v>1493</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>1487</v>
+        <v>1494</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>1488</v>
+        <v>1495</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>1489</v>
+        <v>1496</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>1490</v>
+        <v>1497</v>
       </c>
       <c r="J178" s="2" t="s">
-        <v>1491</v>
+        <v>1498</v>
       </c>
       <c r="K178" s="2" t="s">
-        <v>1492</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="179" spans="1:11">
       <c r="A179" s="1" t="s">
-        <v>1493</v>
+        <v>1500</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>1494</v>
+        <v>1501</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>1493</v>
+        <v>1500</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>1495</v>
+        <v>1502</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>1496</v>
+        <v>1503</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>1493</v>
+        <v>1500</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>1497</v>
+        <v>1504</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>1498</v>
+        <v>1505</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>1494</v>
+        <v>1501</v>
       </c>
       <c r="J179" s="2" t="s">
-        <v>1494</v>
+        <v>1501</v>
       </c>
       <c r="K179" s="2" t="s">
-        <v>1499</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="180" spans="1:11">
       <c r="A180" s="1" t="s">
-        <v>1500</v>
+        <v>1507</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>1501</v>
+        <v>1508</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>1500</v>
+        <v>1507</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>1502</v>
+        <v>1509</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>1500</v>
+        <v>1507</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>1500</v>
+        <v>1507</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>1503</v>
+        <v>1510</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>1504</v>
+        <v>1511</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>1501</v>
+        <v>1508</v>
       </c>
       <c r="J180" s="2" t="s">
-        <v>1505</v>
+        <v>1512</v>
       </c>
       <c r="K180" s="2" t="s">
-        <v>1506</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="181" spans="1:11">
       <c r="A181" s="1" t="s">
-        <v>1507</v>
+        <v>1514</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1508</v>
+        <v>1515</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>1509</v>
+        <v>1516</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>1510</v>
+        <v>1517</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>1511</v>
+        <v>1518</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>1512</v>
+        <v>1519</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>1513</v>
+        <v>1520</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>1514</v>
+        <v>1521</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>1515</v>
+        <v>1522</v>
       </c>
       <c r="J181" s="2" t="s">
-        <v>1516</v>
+        <v>1523</v>
       </c>
       <c r="K181" s="2" t="s">
-        <v>1517</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -16303,212 +16376,212 @@
     </row>
     <row r="183" spans="1:11">
       <c r="A183" s="1" t="s">
-        <v>1518</v>
+        <v>1525</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>1519</v>
+        <v>1526</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>1520</v>
+        <v>1527</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>1521</v>
+        <v>1528</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>1522</v>
+        <v>1529</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>1523</v>
+        <v>1530</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>1524</v>
+        <v>1531</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>1525</v>
+        <v>1532</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>1526</v>
+        <v>1533</v>
       </c>
       <c r="J183" s="2" t="s">
-        <v>1527</v>
+        <v>1534</v>
       </c>
       <c r="K183" s="2" t="s">
-        <v>1528</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="184" spans="1:11">
       <c r="A184" s="1" t="s">
-        <v>1529</v>
+        <v>1536</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>1530</v>
+        <v>1537</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>1531</v>
+        <v>1538</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>1532</v>
+        <v>1539</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>1533</v>
+        <v>1540</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>1534</v>
+        <v>1541</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>1535</v>
+        <v>1542</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>1536</v>
+        <v>1543</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>1537</v>
+        <v>1544</v>
       </c>
       <c r="J184" s="2" t="s">
-        <v>1538</v>
+        <v>1545</v>
       </c>
       <c r="K184" s="2" t="s">
-        <v>1539</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="185" spans="1:11">
       <c r="A185" s="1" t="s">
-        <v>1540</v>
+        <v>1547</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>1541</v>
+        <v>1548</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>1542</v>
+        <v>1549</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>1543</v>
+        <v>1550</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>1544</v>
+        <v>1551</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>1545</v>
+        <v>1552</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>1546</v>
+        <v>1553</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>1547</v>
+        <v>1554</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>1548</v>
+        <v>1555</v>
       </c>
       <c r="J185" s="2" t="s">
-        <v>1549</v>
+        <v>1556</v>
       </c>
       <c r="K185" s="2" t="s">
-        <v>1550</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="186" ht="32" spans="1:11">
       <c r="A186" s="1" t="s">
-        <v>1551</v>
+        <v>1558</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>1552</v>
+        <v>1559</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>1553</v>
+        <v>1560</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>1554</v>
+        <v>1561</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>1555</v>
+        <v>1562</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>1556</v>
+        <v>1563</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>1557</v>
+        <v>1564</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>1558</v>
+        <v>1565</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>1559</v>
+        <v>1566</v>
       </c>
       <c r="J186" s="2" t="s">
-        <v>1560</v>
+        <v>1567</v>
       </c>
       <c r="K186" s="2" t="s">
-        <v>1561</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="187" ht="32" spans="1:11">
       <c r="A187" s="1" t="s">
-        <v>1562</v>
+        <v>1569</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>1563</v>
+        <v>1570</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>1564</v>
+        <v>1571</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>1565</v>
+        <v>1572</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>1566</v>
+        <v>1573</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>1567</v>
+        <v>1574</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>1568</v>
+        <v>1575</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>1569</v>
+        <v>1576</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>1570</v>
+        <v>1577</v>
       </c>
       <c r="J187" s="2" t="s">
-        <v>1571</v>
+        <v>1578</v>
       </c>
       <c r="K187" s="2" t="s">
-        <v>1572</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="188" ht="48" spans="1:11">
       <c r="A188" s="1" t="s">
-        <v>1573</v>
+        <v>1580</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>1574</v>
+        <v>1581</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>1577</v>
+        <v>1584</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>1578</v>
+        <v>1585</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>1579</v>
+        <v>1586</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>1580</v>
+        <v>1587</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>1581</v>
+        <v>1588</v>
       </c>
       <c r="J188" s="2" t="s">
-        <v>1582</v>
+        <v>1589</v>
       </c>
       <c r="K188" s="2" t="s">
-        <v>1583</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -16526,7 +16599,7 @@
     </row>
     <row r="190" spans="1:11">
       <c r="A190" s="15" t="s">
-        <v>1584</v>
+        <v>1591</v>
       </c>
       <c r="B190" s="1"/>
       <c r="C190" s="10"/>
@@ -16541,737 +16614,737 @@
     </row>
     <row r="191" spans="1:11">
       <c r="A191" s="1" t="s">
-        <v>1585</v>
+        <v>1592</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>1586</v>
+        <v>1593</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>1587</v>
+        <v>1594</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>1588</v>
+        <v>1595</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>1589</v>
+        <v>1596</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>1590</v>
+        <v>1597</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>1591</v>
+        <v>1598</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>1592</v>
+        <v>1599</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>1593</v>
+        <v>1600</v>
       </c>
       <c r="J191" s="2" t="s">
-        <v>1594</v>
+        <v>1601</v>
       </c>
       <c r="K191" s="2" t="s">
-        <v>1595</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="192" spans="1:11">
       <c r="A192" s="1" t="s">
-        <v>1596</v>
+        <v>1603</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>1597</v>
+        <v>1604</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>1598</v>
+        <v>1605</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>1599</v>
+        <v>1606</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>1600</v>
+        <v>1607</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>1601</v>
+        <v>1608</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>1602</v>
+        <v>1609</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>1603</v>
+        <v>1610</v>
       </c>
       <c r="I192" s="2" t="s">
+        <v>1611</v>
+      </c>
+      <c r="J192" s="2" t="s">
         <v>1604</v>
       </c>
-      <c r="J192" s="2" t="s">
-        <v>1597</v>
-      </c>
       <c r="K192" s="2" t="s">
-        <v>1605</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="193" spans="1:11">
       <c r="A193" s="1" t="s">
-        <v>1606</v>
+        <v>1613</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1607</v>
+        <v>1614</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>1608</v>
+        <v>1615</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>1609</v>
+        <v>1616</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>1610</v>
+        <v>1617</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>1611</v>
+        <v>1618</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>1612</v>
+        <v>1619</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>1613</v>
+        <v>1620</v>
       </c>
       <c r="I193" s="2" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J193" s="2" t="s">
         <v>1614</v>
       </c>
-      <c r="J193" s="2" t="s">
-        <v>1607</v>
-      </c>
       <c r="K193" s="2" t="s">
-        <v>1615</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="194" spans="1:11">
       <c r="A194" s="1" t="s">
-        <v>1616</v>
+        <v>1623</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>1617</v>
+        <v>1624</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>1618</v>
+        <v>1625</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>1619</v>
+        <v>1626</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>1620</v>
+        <v>1627</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>1621</v>
+        <v>1628</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>1622</v>
+        <v>1629</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>1623</v>
+        <v>1630</v>
       </c>
       <c r="I194" s="2" t="s">
+        <v>1631</v>
+      </c>
+      <c r="J194" s="2" t="s">
         <v>1624</v>
       </c>
-      <c r="J194" s="2" t="s">
-        <v>1617</v>
-      </c>
       <c r="K194" s="2" t="s">
-        <v>1625</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="195" spans="1:11">
       <c r="A195" s="1" t="s">
-        <v>1626</v>
+        <v>1633</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1627</v>
+        <v>1634</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>1628</v>
+        <v>1635</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>1629</v>
+        <v>1636</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>1630</v>
+        <v>1637</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>1631</v>
+        <v>1638</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>1632</v>
+        <v>1639</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>1633</v>
+        <v>1640</v>
       </c>
       <c r="I195" s="2" t="s">
+        <v>1641</v>
+      </c>
+      <c r="J195" s="2" t="s">
         <v>1634</v>
       </c>
-      <c r="J195" s="2" t="s">
-        <v>1627</v>
-      </c>
       <c r="K195" s="2" t="s">
-        <v>1635</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="196" spans="1:11">
       <c r="A196" s="1" t="s">
-        <v>1636</v>
+        <v>1643</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>1637</v>
+        <v>1644</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>1638</v>
+        <v>1645</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>1639</v>
+        <v>1646</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>1640</v>
+        <v>1647</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>1641</v>
+        <v>1648</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>1642</v>
+        <v>1649</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>1643</v>
+        <v>1650</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>1644</v>
+        <v>1651</v>
       </c>
       <c r="J196" s="2" t="s">
-        <v>1645</v>
+        <v>1652</v>
       </c>
       <c r="K196" s="2" t="s">
-        <v>1646</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="197" spans="1:11">
       <c r="A197" s="1" t="s">
-        <v>1647</v>
+        <v>1654</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>1648</v>
+        <v>1655</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>1649</v>
+        <v>1656</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>1650</v>
+        <v>1657</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>1651</v>
+        <v>1658</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>1652</v>
+        <v>1659</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>1653</v>
+        <v>1660</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>1654</v>
+        <v>1661</v>
       </c>
       <c r="I197" s="2" t="s">
+        <v>1662</v>
+      </c>
+      <c r="J197" s="2" t="s">
         <v>1655</v>
       </c>
-      <c r="J197" s="2" t="s">
-        <v>1648</v>
-      </c>
       <c r="K197" s="2" t="s">
-        <v>1656</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="198" spans="1:11">
       <c r="A198" s="1" t="s">
-        <v>1657</v>
+        <v>1664</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>1658</v>
+        <v>1665</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>1659</v>
+        <v>1666</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>1660</v>
+        <v>1667</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>1661</v>
+        <v>1668</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>1662</v>
+        <v>1669</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>1663</v>
+        <v>1670</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>1664</v>
+        <v>1671</v>
       </c>
       <c r="I198" s="2" t="s">
+        <v>1672</v>
+      </c>
+      <c r="J198" s="2" t="s">
         <v>1665</v>
       </c>
-      <c r="J198" s="2" t="s">
-        <v>1658</v>
-      </c>
       <c r="K198" s="2" t="s">
-        <v>1666</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="199" spans="1:11">
       <c r="A199" s="1" t="s">
-        <v>1667</v>
+        <v>1674</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1668</v>
+        <v>1675</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>1669</v>
+        <v>1676</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>1670</v>
+        <v>1677</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>1671</v>
+        <v>1678</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>1672</v>
+        <v>1679</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>1673</v>
+        <v>1680</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>1674</v>
+        <v>1681</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>1675</v>
+        <v>1682</v>
       </c>
       <c r="J199" s="2" t="s">
-        <v>1676</v>
+        <v>1683</v>
       </c>
       <c r="K199" s="2" t="s">
-        <v>1677</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="200" ht="18" spans="1:11">
       <c r="A200" s="5" t="s">
-        <v>1678</v>
+        <v>1685</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>1679</v>
-      </c>
-      <c r="C200" s="22" t="s">
-        <v>1680</v>
-      </c>
-      <c r="D200" s="23" t="s">
-        <v>1681</v>
-      </c>
-      <c r="E200" s="23" t="s">
-        <v>1682</v>
-      </c>
-      <c r="F200" s="23" t="s">
-        <v>1683</v>
-      </c>
-      <c r="G200" s="23" t="s">
-        <v>1684</v>
+        <v>1686</v>
+      </c>
+      <c r="C200" s="28" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D200" s="29" t="s">
+        <v>1688</v>
+      </c>
+      <c r="E200" s="29" t="s">
+        <v>1689</v>
+      </c>
+      <c r="F200" s="29" t="s">
+        <v>1690</v>
+      </c>
+      <c r="G200" s="29" t="s">
+        <v>1691</v>
       </c>
       <c r="H200" t="s">
-        <v>1685</v>
+        <v>1692</v>
       </c>
       <c r="I200" t="s">
-        <v>1686</v>
+        <v>1693</v>
       </c>
       <c r="J200" s="5" t="s">
-        <v>1687</v>
+        <v>1694</v>
       </c>
       <c r="K200" s="2" t="s">
-        <v>1688</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="201" spans="1:11">
       <c r="A201" s="1" t="s">
-        <v>1689</v>
+        <v>1696</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>1690</v>
+        <v>1697</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>1691</v>
+        <v>1698</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>1692</v>
+        <v>1699</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>1693</v>
+        <v>1700</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>1694</v>
+        <v>1701</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>1695</v>
+        <v>1702</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>1696</v>
+        <v>1703</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>1697</v>
+        <v>1704</v>
       </c>
       <c r="J201" s="2" t="s">
-        <v>1698</v>
+        <v>1705</v>
       </c>
       <c r="K201" s="2" t="s">
-        <v>1699</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="202" ht="32" spans="1:11">
       <c r="A202" s="1" t="s">
-        <v>1700</v>
+        <v>1707</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>1701</v>
+        <v>1708</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>1702</v>
+        <v>1709</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>1703</v>
+        <v>1710</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>1704</v>
+        <v>1711</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>1705</v>
+        <v>1712</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>1706</v>
+        <v>1713</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>1707</v>
+        <v>1714</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>1708</v>
+        <v>1715</v>
       </c>
       <c r="J202" s="2" t="s">
-        <v>1709</v>
+        <v>1716</v>
       </c>
       <c r="K202" s="2" t="s">
-        <v>1710</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="203" ht="48" spans="1:11">
       <c r="A203" s="1" t="s">
-        <v>1711</v>
+        <v>1718</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>1712</v>
+        <v>1719</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>1713</v>
+        <v>1720</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>1714</v>
+        <v>1721</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>1715</v>
+        <v>1722</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>1716</v>
+        <v>1723</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>1717</v>
+        <v>1724</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>1718</v>
+        <v>1725</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>1719</v>
+        <v>1726</v>
       </c>
       <c r="J203" s="2" t="s">
-        <v>1720</v>
+        <v>1727</v>
       </c>
       <c r="K203" s="2" t="s">
-        <v>1721</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="204" ht="48" spans="1:11">
       <c r="A204" s="1" t="s">
-        <v>1722</v>
+        <v>1729</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>1723</v>
+        <v>1730</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>1724</v>
+        <v>1731</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>1725</v>
+        <v>1732</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>1726</v>
+        <v>1733</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>1728</v>
+        <v>1735</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>1729</v>
+        <v>1736</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
       <c r="J204" s="2" t="s">
-        <v>1731</v>
+        <v>1738</v>
       </c>
       <c r="K204" s="2" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="205" spans="1:11">
       <c r="A205" s="6" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>1734</v>
-      </c>
-      <c r="C205" s="22" t="s">
-        <v>1735</v>
-      </c>
-      <c r="D205" s="23" t="s">
-        <v>1736</v>
-      </c>
-      <c r="E205" s="23" t="s">
-        <v>1737</v>
-      </c>
-      <c r="F205" s="23" t="s">
-        <v>1738</v>
-      </c>
-      <c r="G205" s="23" t="s">
-        <v>1739</v>
+        <v>1741</v>
+      </c>
+      <c r="C205" s="28" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D205" s="29" t="s">
+        <v>1743</v>
+      </c>
+      <c r="E205" s="29" t="s">
+        <v>1744</v>
+      </c>
+      <c r="F205" s="29" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G205" s="29" t="s">
+        <v>1746</v>
       </c>
       <c r="H205" t="s">
-        <v>1740</v>
+        <v>1747</v>
       </c>
       <c r="I205" t="s">
-        <v>1741</v>
+        <v>1748</v>
       </c>
       <c r="J205" s="6" t="s">
-        <v>1742</v>
+        <v>1749</v>
       </c>
       <c r="K205" s="2" t="s">
-        <v>1743</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="206" spans="1:11">
       <c r="A206" s="6" t="s">
-        <v>1744</v>
+        <v>1751</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>1745</v>
-      </c>
-      <c r="C206" s="22" t="s">
-        <v>1746</v>
-      </c>
-      <c r="D206" s="23" t="s">
-        <v>1747</v>
-      </c>
-      <c r="E206" s="23" t="s">
-        <v>1748</v>
-      </c>
-      <c r="F206" s="23" t="s">
-        <v>1749</v>
-      </c>
-      <c r="G206" s="23" t="s">
-        <v>1750</v>
+        <v>1752</v>
+      </c>
+      <c r="C206" s="28" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D206" s="29" t="s">
+        <v>1754</v>
+      </c>
+      <c r="E206" s="29" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F206" s="29" t="s">
+        <v>1756</v>
+      </c>
+      <c r="G206" s="29" t="s">
+        <v>1757</v>
       </c>
       <c r="H206" t="s">
-        <v>1751</v>
-      </c>
-      <c r="I206" s="25" t="s">
-        <v>1752</v>
+        <v>1758</v>
+      </c>
+      <c r="I206" s="31" t="s">
+        <v>1759</v>
       </c>
       <c r="J206" s="6" t="s">
-        <v>1753</v>
+        <v>1760</v>
       </c>
       <c r="K206" s="2" t="s">
-        <v>1754</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="207" ht="96" spans="1:11">
       <c r="A207" s="1" t="s">
-        <v>1755</v>
+        <v>1762</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>1756</v>
+        <v>1763</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>1757</v>
+        <v>1764</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>1758</v>
+        <v>1765</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>1759</v>
+        <v>1766</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>1760</v>
+        <v>1767</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>1761</v>
+        <v>1768</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>1762</v>
+        <v>1769</v>
       </c>
       <c r="I207" s="10" t="s">
-        <v>1763</v>
+        <v>1770</v>
       </c>
       <c r="J207" s="2" t="s">
-        <v>1764</v>
+        <v>1771</v>
       </c>
       <c r="K207" s="2" t="s">
-        <v>1765</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="208" ht="32" spans="1:11">
       <c r="A208" s="1" t="s">
-        <v>1766</v>
+        <v>1773</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>1767</v>
+        <v>1774</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>1768</v>
+        <v>1775</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>1769</v>
+        <v>1776</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>1770</v>
+        <v>1777</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>1771</v>
+        <v>1778</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>1772</v>
+        <v>1779</v>
       </c>
       <c r="H208" s="2" t="s">
-        <v>1773</v>
+        <v>1780</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>1774</v>
+        <v>1781</v>
       </c>
       <c r="J208" s="2" t="s">
-        <v>1775</v>
+        <v>1782</v>
       </c>
       <c r="K208" s="2" t="s">
-        <v>1776</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="209" ht="48" spans="1:11">
       <c r="A209" s="1" t="s">
-        <v>1777</v>
+        <v>1784</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>1778</v>
+        <v>1785</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>1779</v>
+        <v>1786</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>1780</v>
+        <v>1787</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>1781</v>
+        <v>1788</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>1782</v>
+        <v>1789</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>1783</v>
+        <v>1790</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>1784</v>
+        <v>1791</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>1785</v>
+        <v>1792</v>
       </c>
       <c r="J209" s="2" t="s">
-        <v>1786</v>
+        <v>1793</v>
       </c>
       <c r="K209" s="2" t="s">
-        <v>1787</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="210" ht="96" spans="1:11">
       <c r="A210" s="1" t="s">
-        <v>1788</v>
+        <v>1795</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>1789</v>
+        <v>1796</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>1790</v>
+        <v>1797</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>1791</v>
+        <v>1798</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>1792</v>
+        <v>1799</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>1793</v>
+        <v>1800</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>1794</v>
+        <v>1801</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>1795</v>
+        <v>1802</v>
       </c>
       <c r="I210" s="10" t="s">
-        <v>1796</v>
+        <v>1803</v>
       </c>
       <c r="J210" s="2" t="s">
-        <v>1797</v>
+        <v>1804</v>
       </c>
       <c r="K210" s="2" t="s">
-        <v>1798</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="211" spans="1:11">
       <c r="A211" s="1" t="s">
-        <v>1799</v>
+        <v>1806</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>1800</v>
+        <v>1807</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>1801</v>
+        <v>1808</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>1802</v>
+        <v>1809</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>1803</v>
+        <v>1810</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>1804</v>
+        <v>1811</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>1805</v>
+        <v>1812</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>1806</v>
+        <v>1813</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>1807</v>
+        <v>1814</v>
       </c>
       <c r="J211" s="2" t="s">
-        <v>1808</v>
+        <v>1815</v>
       </c>
       <c r="K211" s="2" t="s">
-        <v>1809</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -17289,7 +17362,7 @@
     </row>
     <row r="213" spans="1:11">
       <c r="A213" s="15" t="s">
-        <v>1810</v>
+        <v>1817</v>
       </c>
       <c r="B213" s="1"/>
       <c r="C213" s="10"/>
@@ -17304,107 +17377,107 @@
     </row>
     <row r="214" spans="1:11">
       <c r="A214" s="1" t="s">
-        <v>1811</v>
+        <v>1818</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>1812</v>
+        <v>1819</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>1813</v>
+        <v>1820</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>1814</v>
+        <v>1821</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>1815</v>
+        <v>1822</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>1816</v>
+        <v>1823</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>1817</v>
+        <v>1824</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>1818</v>
+        <v>1825</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>1819</v>
+        <v>1826</v>
       </c>
       <c r="J214" s="2" t="s">
-        <v>1820</v>
+        <v>1827</v>
       </c>
       <c r="K214" s="2" t="s">
-        <v>1821</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="215" spans="1:11">
       <c r="A215" s="1" t="s">
-        <v>1822</v>
+        <v>1829</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>1823</v>
+        <v>1830</v>
       </c>
       <c r="C215" s="10" t="s">
-        <v>1824</v>
+        <v>1831</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>1825</v>
+        <v>1832</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>1826</v>
+        <v>1833</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>1827</v>
+        <v>1834</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>1828</v>
+        <v>1835</v>
       </c>
       <c r="H215" s="2" t="s">
-        <v>1829</v>
+        <v>1836</v>
       </c>
       <c r="I215" s="2" t="s">
+        <v>1837</v>
+      </c>
+      <c r="J215" s="2" t="s">
         <v>1830</v>
       </c>
-      <c r="J215" s="2" t="s">
-        <v>1823</v>
-      </c>
       <c r="K215" s="2" t="s">
-        <v>1831</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="216" spans="1:11">
       <c r="A216" s="1" t="s">
-        <v>1832</v>
+        <v>1839</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>1833</v>
+        <v>1840</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>1834</v>
+        <v>1841</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>1835</v>
+        <v>1842</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>1836</v>
+        <v>1843</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>1837</v>
+        <v>1844</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>1838</v>
+        <v>1845</v>
       </c>
       <c r="H216" s="2" t="s">
-        <v>1839</v>
+        <v>1846</v>
       </c>
       <c r="I216" s="2" t="s">
+        <v>1847</v>
+      </c>
+      <c r="J216" s="2" t="s">
         <v>1840</v>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>1833</v>
-      </c>
       <c r="K216" s="2" t="s">
-        <v>1841</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="217" spans="1:11">
@@ -17415,22 +17488,22 @@
         <v>1109</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>1842</v>
+        <v>1849</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>1843</v>
+        <v>1850</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>1112</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>1844</v>
+        <v>1851</v>
       </c>
       <c r="G217" s="2" t="s">
         <v>1114</v>
       </c>
       <c r="H217" s="2" t="s">
-        <v>1845</v>
+        <v>1852</v>
       </c>
       <c r="I217" s="2" t="s">
         <v>1109</v>
@@ -17444,72 +17517,72 @@
     </row>
     <row r="218" spans="1:11">
       <c r="A218" s="1" t="s">
-        <v>1846</v>
+        <v>1853</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>1847</v>
+        <v>1854</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>1848</v>
+        <v>1855</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>1849</v>
+        <v>1856</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>1850</v>
+        <v>1857</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>1851</v>
+        <v>1858</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>1852</v>
+        <v>1859</v>
       </c>
       <c r="H218" s="2" t="s">
-        <v>1853</v>
+        <v>1860</v>
       </c>
       <c r="I218" s="2" t="s">
-        <v>1854</v>
+        <v>1861</v>
       </c>
       <c r="J218" s="2" t="s">
-        <v>1855</v>
+        <v>1862</v>
       </c>
       <c r="K218" s="2" t="s">
-        <v>1856</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="219" spans="1:11">
       <c r="A219" s="1" t="s">
-        <v>1857</v>
+        <v>1864</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>1858</v>
+        <v>1865</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>1859</v>
+        <v>1866</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>1860</v>
+        <v>1867</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>1861</v>
+        <v>1868</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>1862</v>
+        <v>1869</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>1863</v>
+        <v>1870</v>
       </c>
       <c r="H219" s="2" t="s">
-        <v>1864</v>
+        <v>1871</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>1858</v>
+        <v>1865</v>
       </c>
       <c r="J219" s="2" t="s">
-        <v>1865</v>
+        <v>1872</v>
       </c>
       <c r="K219" s="2" t="s">
-        <v>1866</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="220" spans="1:11">
@@ -17527,177 +17600,177 @@
     </row>
     <row r="221" spans="1:11">
       <c r="A221" s="1" t="s">
-        <v>1867</v>
+        <v>1874</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>1868</v>
+        <v>1875</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>1869</v>
+        <v>1876</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>1870</v>
+        <v>1877</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>1871</v>
+        <v>1878</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>1872</v>
+        <v>1879</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>1873</v>
+        <v>1880</v>
       </c>
       <c r="H221" s="2" t="s">
-        <v>1874</v>
+        <v>1881</v>
       </c>
       <c r="I221" s="2" t="s">
-        <v>1875</v>
+        <v>1882</v>
       </c>
       <c r="J221" s="2" t="s">
-        <v>1876</v>
+        <v>1883</v>
       </c>
       <c r="K221" s="2" t="s">
-        <v>1877</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="222" spans="1:11">
       <c r="A222" s="1" t="s">
-        <v>1878</v>
+        <v>1885</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>1879</v>
+        <v>1886</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>1880</v>
+        <v>1887</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>1881</v>
+        <v>1888</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>1882</v>
+        <v>1889</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>1883</v>
+        <v>1890</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>1884</v>
+        <v>1891</v>
       </c>
       <c r="H222" s="2" t="s">
-        <v>1885</v>
+        <v>1892</v>
       </c>
       <c r="I222" s="2" t="s">
-        <v>1886</v>
+        <v>1893</v>
       </c>
       <c r="J222" s="2" t="s">
-        <v>1887</v>
+        <v>1894</v>
       </c>
       <c r="K222" s="2" t="s">
-        <v>1888</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="223" spans="1:11">
       <c r="A223" s="1" t="s">
-        <v>1889</v>
+        <v>1896</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>1890</v>
+        <v>1897</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>1891</v>
+        <v>1898</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>1892</v>
+        <v>1899</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>1893</v>
+        <v>1900</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>1894</v>
+        <v>1901</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>1895</v>
+        <v>1902</v>
       </c>
       <c r="H223" s="2" t="s">
-        <v>1896</v>
+        <v>1903</v>
       </c>
       <c r="I223" s="2" t="s">
-        <v>1897</v>
+        <v>1904</v>
       </c>
       <c r="J223" s="2" t="s">
-        <v>1898</v>
+        <v>1905</v>
       </c>
       <c r="K223" s="2" t="s">
-        <v>1899</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="224" ht="32" spans="1:11">
       <c r="A224" s="1" t="s">
-        <v>1900</v>
+        <v>1907</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>1901</v>
+        <v>1908</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>1902</v>
+        <v>1909</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>1903</v>
+        <v>1910</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>1904</v>
+        <v>1911</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>1905</v>
+        <v>1912</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>1906</v>
+        <v>1913</v>
       </c>
       <c r="H224" s="2" t="s">
-        <v>1907</v>
+        <v>1914</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>1908</v>
+        <v>1915</v>
       </c>
       <c r="J224" s="2" t="s">
-        <v>1909</v>
+        <v>1916</v>
       </c>
       <c r="K224" s="2" t="s">
-        <v>1910</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="225" ht="32" spans="1:11">
       <c r="A225" s="1" t="s">
-        <v>1911</v>
+        <v>1918</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>1912</v>
+        <v>1919</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>1913</v>
+        <v>1920</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>1914</v>
+        <v>1921</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>1915</v>
+        <v>1922</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>1916</v>
+        <v>1923</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>1917</v>
+        <v>1924</v>
       </c>
       <c r="H225" s="2" t="s">
-        <v>1918</v>
+        <v>1925</v>
       </c>
       <c r="I225" s="2" t="s">
-        <v>1919</v>
+        <v>1926</v>
       </c>
       <c r="J225" s="2" t="s">
-        <v>1920</v>
+        <v>1927</v>
       </c>
       <c r="K225" s="2" t="s">
-        <v>1921</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="226" spans="1:11">
@@ -17715,7 +17788,7 @@
     </row>
     <row r="227" spans="1:11">
       <c r="A227" s="15" t="s">
-        <v>1922</v>
+        <v>1929</v>
       </c>
       <c r="B227" s="1"/>
       <c r="C227" s="10"/>
@@ -17730,7 +17803,7 @@
     </row>
     <row r="228" spans="1:11">
       <c r="A228" s="15" t="s">
-        <v>1923</v>
+        <v>1930</v>
       </c>
       <c r="B228" s="1"/>
       <c r="C228" s="10"/>
@@ -17745,226 +17818,226 @@
     </row>
     <row r="229" spans="1:11">
       <c r="A229" s="1" t="s">
-        <v>1924</v>
+        <v>1931</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>1925</v>
+        <v>1932</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>1926</v>
+        <v>1933</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>1927</v>
+        <v>1934</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>1928</v>
+        <v>1935</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>1929</v>
+        <v>1936</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>1930</v>
+        <v>1937</v>
       </c>
       <c r="H229" s="2" t="s">
-        <v>1931</v>
+        <v>1938</v>
       </c>
       <c r="I229" s="2" t="s">
-        <v>1932</v>
+        <v>1939</v>
       </c>
       <c r="J229" s="2" t="s">
-        <v>1933</v>
+        <v>1940</v>
       </c>
       <c r="K229" s="2" t="s">
-        <v>1934</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="230" ht="18" spans="1:11">
       <c r="A230" s="5" t="s">
-        <v>1935</v>
+        <v>1942</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>1936</v>
-      </c>
-      <c r="C230" s="24" t="s">
-        <v>1937</v>
-      </c>
-      <c r="D230" s="23" t="s">
-        <v>1938</v>
-      </c>
-      <c r="E230" s="23" t="s">
-        <v>1939</v>
-      </c>
-      <c r="F230" s="23" t="s">
-        <v>1940</v>
-      </c>
-      <c r="G230" s="23" t="s">
-        <v>1941</v>
+        <v>1943</v>
+      </c>
+      <c r="C230" s="30" t="s">
+        <v>1944</v>
+      </c>
+      <c r="D230" s="29" t="s">
+        <v>1945</v>
+      </c>
+      <c r="E230" s="29" t="s">
+        <v>1946</v>
+      </c>
+      <c r="F230" s="29" t="s">
+        <v>1947</v>
+      </c>
+      <c r="G230" s="29" t="s">
+        <v>1948</v>
       </c>
       <c r="H230" t="s">
-        <v>1942</v>
+        <v>1949</v>
       </c>
       <c r="I230" t="s">
-        <v>1943</v>
-      </c>
-      <c r="J230" s="26" t="s">
-        <v>1944</v>
+        <v>1950</v>
+      </c>
+      <c r="J230" s="32" t="s">
+        <v>1951</v>
       </c>
       <c r="K230" s="2" t="s">
-        <v>1945</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="231" spans="1:11">
       <c r="A231" s="1" t="s">
-        <v>1946</v>
+        <v>1953</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1947</v>
+        <v>1954</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>1948</v>
+        <v>1955</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>1949</v>
+        <v>1956</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>1950</v>
+        <v>1957</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>1948</v>
+        <v>1955</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>1951</v>
+        <v>1958</v>
       </c>
       <c r="H231" s="2" t="s">
-        <v>1952</v>
+        <v>1959</v>
       </c>
       <c r="I231" s="2" t="s">
-        <v>1953</v>
+        <v>1960</v>
       </c>
       <c r="J231" s="2" t="s">
-        <v>1954</v>
+        <v>1961</v>
       </c>
       <c r="K231" s="2" t="s">
-        <v>1955</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="232" spans="1:11">
       <c r="A232" s="1" t="s">
-        <v>1956</v>
+        <v>1963</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>1957</v>
+        <v>1964</v>
       </c>
       <c r="C232" s="10" t="s">
-        <v>1958</v>
+        <v>1965</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>1959</v>
+        <v>1966</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>1960</v>
+        <v>1967</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>1961</v>
+        <v>1968</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>1962</v>
+        <v>1969</v>
       </c>
       <c r="H232" s="2" t="s">
-        <v>1963</v>
+        <v>1970</v>
       </c>
       <c r="I232" s="2" t="s">
+        <v>1971</v>
+      </c>
+      <c r="J232" s="2" t="s">
         <v>1964</v>
       </c>
-      <c r="J232" s="2" t="s">
-        <v>1957</v>
-      </c>
       <c r="K232" s="2" t="s">
-        <v>1965</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="233" spans="1:11">
       <c r="A233" s="1" t="s">
-        <v>1966</v>
+        <v>1973</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1967</v>
+        <v>1974</v>
       </c>
       <c r="C233" s="10" t="s">
-        <v>1968</v>
+        <v>1975</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>1969</v>
+        <v>1976</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>1970</v>
+        <v>1977</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>1971</v>
+        <v>1978</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>1972</v>
+        <v>1979</v>
       </c>
       <c r="H233" s="2" t="s">
-        <v>1973</v>
+        <v>1980</v>
       </c>
       <c r="I233" s="2" t="s">
+        <v>1981</v>
+      </c>
+      <c r="J233" s="2" t="s">
         <v>1974</v>
       </c>
-      <c r="J233" s="2" t="s">
-        <v>1967</v>
-      </c>
       <c r="K233" s="2" t="s">
-        <v>1975</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="234" spans="1:11">
       <c r="A234" s="1" t="s">
-        <v>1976</v>
+        <v>1983</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>1977</v>
+        <v>1984</v>
       </c>
       <c r="C234" s="10" t="s">
-        <v>1978</v>
+        <v>1985</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>1978</v>
+        <v>1985</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>1979</v>
+        <v>1986</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>1980</v>
+        <v>1987</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>1981</v>
+        <v>1988</v>
       </c>
       <c r="H234" s="2" t="s">
-        <v>1982</v>
+        <v>1989</v>
       </c>
       <c r="I234" s="2" t="s">
-        <v>1983</v>
+        <v>1990</v>
       </c>
       <c r="J234" s="2" t="s">
-        <v>1984</v>
+        <v>1991</v>
       </c>
       <c r="K234" s="2" t="s">
-        <v>1985</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="235" spans="1:11">
       <c r="A235" s="1" t="s">
-        <v>1986</v>
+        <v>1993</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1987</v>
+        <v>1994</v>
       </c>
       <c r="C235" s="10" t="s">
-        <v>1988</v>
+        <v>1995</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>1989</v>
+        <v>1996</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>241</v>
@@ -17976,91 +18049,91 @@
         <v>243</v>
       </c>
       <c r="H235" s="2" t="s">
-        <v>1990</v>
+        <v>1997</v>
       </c>
       <c r="I235" s="2" t="s">
-        <v>1991</v>
+        <v>1998</v>
       </c>
       <c r="J235" s="2" t="s">
-        <v>1992</v>
+        <v>1999</v>
       </c>
       <c r="K235" s="2" t="s">
-        <v>1993</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="236" spans="1:11">
       <c r="A236" s="1" t="s">
-        <v>1994</v>
+        <v>2001</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>1995</v>
+        <v>2002</v>
       </c>
       <c r="C236" s="10" t="s">
-        <v>1996</v>
+        <v>2003</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>1997</v>
+        <v>2004</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>1998</v>
+        <v>2005</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>1999</v>
+        <v>2006</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>2000</v>
+        <v>2007</v>
       </c>
       <c r="H236" s="2" t="s">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="I236" s="2" t="s">
-        <v>1995</v>
+        <v>2002</v>
       </c>
       <c r="J236" s="2" t="s">
-        <v>1995</v>
+        <v>2002</v>
       </c>
       <c r="K236" s="2" t="s">
-        <v>2002</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="237" spans="1:11">
       <c r="A237" s="1" t="s">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="C237" s="10" t="s">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="H237" s="2" t="s">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="I237" s="2" t="s">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="J237" s="2" t="s">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="K237" s="2" t="s">
-        <v>2013</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="238" spans="1:11">
       <c r="A238" s="15" t="s">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="B238" s="1"/>
       <c r="C238" s="10"/>
@@ -18075,77 +18148,77 @@
     </row>
     <row r="239" spans="1:11">
       <c r="A239" s="1" t="s">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>2016</v>
+        <v>2023</v>
       </c>
       <c r="C239" s="10" t="s">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>2018</v>
+        <v>2025</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>2019</v>
+        <v>2026</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>2020</v>
+        <v>2027</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>2021</v>
+        <v>2028</v>
       </c>
       <c r="H239" s="2" t="s">
-        <v>2022</v>
+        <v>2029</v>
       </c>
       <c r="I239" s="2" t="s">
-        <v>2023</v>
+        <v>2030</v>
       </c>
       <c r="J239" s="2" t="s">
-        <v>2024</v>
+        <v>2031</v>
       </c>
       <c r="K239" s="2" t="s">
-        <v>2025</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="240" ht="48" spans="1:11">
       <c r="A240" s="1" t="s">
-        <v>2026</v>
+        <v>2033</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>2027</v>
+        <v>2034</v>
       </c>
       <c r="C240" s="10" t="s">
-        <v>2028</v>
+        <v>2035</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>2029</v>
+        <v>2036</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>2030</v>
+        <v>2037</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>2031</v>
+        <v>2038</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>2032</v>
+        <v>2039</v>
       </c>
       <c r="H240" s="2" t="s">
-        <v>2033</v>
+        <v>2040</v>
       </c>
       <c r="I240" s="2" t="s">
-        <v>2034</v>
+        <v>2041</v>
       </c>
       <c r="J240" s="2" t="s">
-        <v>2035</v>
+        <v>2042</v>
       </c>
       <c r="K240" s="2" t="s">
-        <v>2036</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="241" spans="1:11">
       <c r="A241" s="15" t="s">
-        <v>2037</v>
+        <v>2044</v>
       </c>
       <c r="B241" s="1"/>
       <c r="C241" s="10"/>
@@ -18160,77 +18233,77 @@
     </row>
     <row r="242" ht="48" spans="1:11">
       <c r="A242" s="1" t="s">
-        <v>2038</v>
+        <v>2045</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>2039</v>
+        <v>2046</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>2040</v>
+        <v>2047</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>2041</v>
+        <v>2048</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>2042</v>
+        <v>2049</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>2044</v>
+        <v>2051</v>
       </c>
       <c r="H242" s="2" t="s">
-        <v>2045</v>
+        <v>2052</v>
       </c>
       <c r="I242" s="2" t="s">
-        <v>2046</v>
+        <v>2053</v>
       </c>
       <c r="J242" s="2" t="s">
-        <v>2047</v>
+        <v>2054</v>
       </c>
       <c r="K242" s="2" t="s">
-        <v>2048</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="243" ht="32" spans="1:11">
       <c r="A243" s="1" t="s">
-        <v>2049</v>
+        <v>2056</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>2050</v>
+        <v>2057</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>2051</v>
+        <v>2058</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>2052</v>
+        <v>2059</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>2053</v>
+        <v>2060</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>2054</v>
+        <v>2061</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>2055</v>
+        <v>2062</v>
       </c>
       <c r="H243" s="2" t="s">
-        <v>2056</v>
+        <v>2063</v>
       </c>
       <c r="I243" s="2" t="s">
-        <v>2057</v>
+        <v>2064</v>
       </c>
       <c r="J243" s="2" t="s">
-        <v>2058</v>
+        <v>2065</v>
       </c>
       <c r="K243" s="2" t="s">
-        <v>2059</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="244" spans="1:11">
       <c r="A244" s="15" t="s">
-        <v>2060</v>
+        <v>2067</v>
       </c>
       <c r="B244" s="1"/>
       <c r="C244" s="10"/>
@@ -18245,177 +18318,177 @@
     </row>
     <row r="245" ht="32" spans="1:11">
       <c r="A245" s="1" t="s">
-        <v>2061</v>
+        <v>2068</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>2062</v>
+        <v>2069</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>2063</v>
+        <v>2070</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>2064</v>
+        <v>2071</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>2065</v>
+        <v>2072</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>2066</v>
+        <v>2073</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>2067</v>
+        <v>2074</v>
       </c>
       <c r="H245" s="2" t="s">
-        <v>2068</v>
+        <v>2075</v>
       </c>
       <c r="I245" s="2" t="s">
-        <v>2069</v>
+        <v>2076</v>
       </c>
       <c r="J245" s="2" t="s">
-        <v>2070</v>
+        <v>2077</v>
       </c>
       <c r="K245" s="2" t="s">
-        <v>2071</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="246" ht="32" spans="1:11">
       <c r="A246" s="1" t="s">
-        <v>2072</v>
+        <v>2079</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>2073</v>
+        <v>2080</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>2074</v>
+        <v>2081</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>2075</v>
+        <v>2082</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>2076</v>
+        <v>2083</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>2077</v>
+        <v>2084</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>2078</v>
+        <v>2085</v>
       </c>
       <c r="H246" s="2" t="s">
-        <v>2079</v>
+        <v>2086</v>
       </c>
       <c r="I246" s="2" t="s">
-        <v>2080</v>
+        <v>2087</v>
       </c>
       <c r="J246" s="2" t="s">
-        <v>2081</v>
+        <v>2088</v>
       </c>
       <c r="K246" s="2" t="s">
-        <v>2082</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="247" ht="48" spans="1:11">
       <c r="A247" s="1" t="s">
-        <v>2083</v>
+        <v>2090</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>2084</v>
+        <v>2091</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>2085</v>
+        <v>2092</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>2086</v>
+        <v>2093</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>2087</v>
+        <v>2094</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>2088</v>
+        <v>2095</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>2089</v>
+        <v>2096</v>
       </c>
       <c r="H247" s="2" t="s">
-        <v>2090</v>
+        <v>2097</v>
       </c>
       <c r="I247" s="2" t="s">
-        <v>2091</v>
+        <v>2098</v>
       </c>
       <c r="J247" s="2" t="s">
-        <v>2092</v>
+        <v>2099</v>
       </c>
       <c r="K247" s="2" t="s">
-        <v>2093</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="248" ht="32" spans="1:11">
       <c r="A248" s="1" t="s">
-        <v>2094</v>
+        <v>2101</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>2095</v>
+        <v>2102</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>2096</v>
+        <v>2103</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>2097</v>
+        <v>2104</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>2098</v>
+        <v>2105</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>2099</v>
+        <v>2106</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>2100</v>
+        <v>2107</v>
       </c>
       <c r="H248" s="2" t="s">
-        <v>2101</v>
+        <v>2108</v>
       </c>
       <c r="I248" s="2" t="s">
-        <v>2102</v>
+        <v>2109</v>
       </c>
       <c r="J248" s="2" t="s">
-        <v>2103</v>
+        <v>2110</v>
       </c>
       <c r="K248" s="2" t="s">
-        <v>2104</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="249" spans="1:11">
       <c r="A249" s="1" t="s">
-        <v>2105</v>
+        <v>2112</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>2106</v>
+        <v>2113</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>2107</v>
+        <v>2114</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>2108</v>
+        <v>2115</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>2110</v>
+        <v>2117</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>2111</v>
+        <v>2118</v>
       </c>
       <c r="H249" s="2" t="s">
-        <v>2112</v>
+        <v>2119</v>
       </c>
       <c r="I249" s="2" t="s">
-        <v>2113</v>
+        <v>2120</v>
       </c>
       <c r="J249" s="2" t="s">
-        <v>2114</v>
+        <v>2121</v>
       </c>
       <c r="K249" s="2" t="s">
-        <v>2115</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="250" spans="1:11">
@@ -18433,7 +18506,7 @@
     </row>
     <row r="251" spans="1:11">
       <c r="A251" s="15" t="s">
-        <v>2116</v>
+        <v>2123</v>
       </c>
       <c r="B251" s="1"/>
       <c r="C251" s="10"/>
@@ -18448,160 +18521,160 @@
     </row>
     <row r="252" spans="1:11">
       <c r="A252" s="2" t="s">
-        <v>2117</v>
+        <v>2124</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>2118</v>
+        <v>2125</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>2119</v>
+        <v>2126</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>2120</v>
+        <v>2127</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>2121</v>
+        <v>2128</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>2122</v>
+        <v>2129</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>2123</v>
+        <v>2130</v>
       </c>
       <c r="H252" s="2" t="s">
-        <v>2124</v>
+        <v>2131</v>
       </c>
       <c r="I252" s="2" t="s">
-        <v>2118</v>
+        <v>2125</v>
       </c>
       <c r="J252" s="2"/>
       <c r="K252" s="2" t="s">
-        <v>2125</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="253" spans="1:11">
       <c r="A253" s="2" t="s">
-        <v>2126</v>
+        <v>2133</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>2127</v>
+        <v>2134</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>2128</v>
+        <v>2135</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>2129</v>
+        <v>2136</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>2130</v>
+        <v>2137</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>2131</v>
+        <v>2138</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>2132</v>
+        <v>2139</v>
       </c>
       <c r="H253" s="2" t="s">
-        <v>2133</v>
+        <v>2140</v>
       </c>
       <c r="I253" s="2" t="s">
-        <v>2134</v>
+        <v>2141</v>
       </c>
       <c r="J253" s="2"/>
       <c r="K253" s="2" t="s">
-        <v>2135</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="254" spans="1:11">
       <c r="A254" s="1" t="s">
-        <v>2136</v>
+        <v>2143</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>2137</v>
+        <v>2144</v>
       </c>
       <c r="C254" s="10" t="s">
-        <v>2138</v>
+        <v>2145</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>2139</v>
+        <v>2146</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>2140</v>
+        <v>2147</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>2141</v>
+        <v>2148</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>2142</v>
+        <v>2149</v>
       </c>
       <c r="H254" s="2" t="s">
-        <v>2143</v>
+        <v>2150</v>
       </c>
       <c r="I254" s="2" t="s">
-        <v>2144</v>
+        <v>2151</v>
       </c>
       <c r="J254" s="2" t="s">
-        <v>2145</v>
+        <v>2152</v>
       </c>
       <c r="K254" s="2" t="s">
-        <v>2146</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="255" spans="1:11">
       <c r="A255" s="1" t="s">
-        <v>2147</v>
+        <v>2154</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>2148</v>
+        <v>2155</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>2149</v>
+        <v>2156</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>2150</v>
+        <v>2157</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>2151</v>
+        <v>2158</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>2152</v>
+        <v>2159</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>2153</v>
+        <v>2160</v>
       </c>
       <c r="H255" s="2" t="s">
-        <v>2154</v>
+        <v>2161</v>
       </c>
       <c r="I255" s="2" t="s">
-        <v>2155</v>
+        <v>2162</v>
       </c>
       <c r="J255" s="2" t="s">
-        <v>2156</v>
+        <v>2163</v>
       </c>
       <c r="K255" s="2" t="s">
-        <v>2157</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="256" ht="18" spans="1:11">
       <c r="A256" s="5" t="s">
-        <v>2158</v>
+        <v>2165</v>
       </c>
       <c r="B256" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="C256" s="24" t="s">
+      <c r="C256" s="30" t="s">
         <v>385</v>
       </c>
-      <c r="D256" s="23" t="s">
+      <c r="D256" s="29" t="s">
         <v>386</v>
       </c>
-      <c r="E256" s="23" t="s">
+      <c r="E256" s="29" t="s">
         <v>387</v>
       </c>
-      <c r="F256" s="23" t="s">
+      <c r="F256" s="29" t="s">
         <v>388</v>
       </c>
-      <c r="G256" s="23" t="s">
+      <c r="G256" s="29" t="s">
         <v>389</v>
       </c>
       <c r="H256" t="s">
@@ -18619,24 +18692,24 @@
     </row>
     <row r="257" ht="18" spans="1:11">
       <c r="A257" s="5" t="s">
-        <v>2159</v>
+        <v>2166</v>
       </c>
       <c r="B257" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="C257" s="24" t="s">
+      <c r="C257" s="30" t="s">
         <v>353</v>
       </c>
-      <c r="D257" s="23" t="s">
+      <c r="D257" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="E257" s="23" t="s">
+      <c r="E257" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="F257" s="23" t="s">
+      <c r="F257" s="29" t="s">
         <v>356</v>
       </c>
-      <c r="G257" s="23" t="s">
+      <c r="G257" s="29" t="s">
         <v>357</v>
       </c>
       <c r="H257" t="s">
@@ -18654,107 +18727,107 @@
     </row>
     <row r="258" spans="1:11">
       <c r="A258" s="1" t="s">
-        <v>2160</v>
+        <v>2167</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>2161</v>
+        <v>2168</v>
       </c>
       <c r="C258" s="10" t="s">
-        <v>2162</v>
+        <v>2169</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>2163</v>
+        <v>2170</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>2164</v>
+        <v>2171</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>2165</v>
+        <v>2172</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>2166</v>
-      </c>
-      <c r="H258" s="28" t="s">
-        <v>2167</v>
+        <v>2173</v>
+      </c>
+      <c r="H258" s="34" t="s">
+        <v>2174</v>
       </c>
       <c r="I258" s="2" t="s">
-        <v>2168</v>
+        <v>2175</v>
       </c>
       <c r="J258" s="2" t="s">
-        <v>2169</v>
+        <v>2176</v>
       </c>
       <c r="K258" s="2" t="s">
-        <v>2170</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="259" spans="1:11">
       <c r="A259" s="2" t="s">
-        <v>2171</v>
+        <v>2178</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>2172</v>
+        <v>2179</v>
       </c>
       <c r="C259" s="10" t="s">
-        <v>2173</v>
+        <v>2180</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>2174</v>
+        <v>2181</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>2175</v>
+        <v>2182</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>2176</v>
+        <v>2183</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>2177</v>
+        <v>2184</v>
       </c>
       <c r="H259" s="2" t="s">
-        <v>2178</v>
+        <v>2185</v>
       </c>
       <c r="I259" s="2" t="s">
+        <v>2186</v>
+      </c>
+      <c r="J259" s="2" t="s">
         <v>2179</v>
       </c>
-      <c r="J259" s="2" t="s">
-        <v>2172</v>
-      </c>
       <c r="K259" s="2" t="s">
-        <v>2180</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="260" ht="18" spans="1:11">
       <c r="A260" s="5" t="s">
-        <v>2181</v>
+        <v>2188</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>2182</v>
+        <v>2189</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>2183</v>
+        <v>2190</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>2184</v>
+        <v>2191</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>2185</v>
+        <v>2192</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>2186</v>
+        <v>2193</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>2187</v>
+        <v>2194</v>
       </c>
       <c r="H260" s="2" t="s">
-        <v>2188</v>
+        <v>2195</v>
       </c>
       <c r="I260" s="2" t="s">
-        <v>2189</v>
+        <v>2196</v>
       </c>
       <c r="J260" s="2" t="s">
-        <v>2189</v>
+        <v>2196</v>
       </c>
       <c r="K260" s="2" t="s">
-        <v>2190</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="261" spans="1:11">
@@ -18772,282 +18845,282 @@
     </row>
     <row r="262" ht="32" spans="1:11">
       <c r="A262" s="5" t="s">
-        <v>2191</v>
+        <v>2198</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>2192</v>
+        <v>2199</v>
       </c>
       <c r="C262" s="10" t="s">
-        <v>2193</v>
+        <v>2200</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>2194</v>
+        <v>2201</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>2195</v>
+        <v>2202</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>2196</v>
+        <v>2203</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>2197</v>
-      </c>
-      <c r="H262" s="28" t="s">
-        <v>2198</v>
+        <v>2204</v>
+      </c>
+      <c r="H262" s="34" t="s">
+        <v>2205</v>
       </c>
       <c r="I262" s="2" t="s">
-        <v>2199</v>
+        <v>2206</v>
       </c>
       <c r="J262" s="2" t="s">
-        <v>2200</v>
+        <v>2207</v>
       </c>
       <c r="K262" s="2" t="s">
-        <v>2201</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="263" ht="18" spans="1:11">
       <c r="A263" s="5" t="s">
-        <v>2202</v>
+        <v>2209</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>2203</v>
+        <v>2210</v>
       </c>
       <c r="C263" s="10" t="s">
-        <v>2204</v>
+        <v>2211</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>2205</v>
+        <v>2212</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>2206</v>
+        <v>2213</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>2207</v>
+        <v>2214</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>2208</v>
+        <v>2215</v>
       </c>
       <c r="H263" s="2" t="s">
-        <v>2209</v>
+        <v>2216</v>
       </c>
       <c r="I263" s="2" t="s">
-        <v>2210</v>
+        <v>2217</v>
       </c>
       <c r="J263" s="2" t="s">
-        <v>2211</v>
+        <v>2218</v>
       </c>
       <c r="K263" s="2" t="s">
-        <v>2212</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="264" ht="32" spans="1:11">
       <c r="A264" s="5" t="s">
-        <v>2213</v>
+        <v>2220</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>2214</v>
+        <v>2221</v>
       </c>
       <c r="C264" s="10" t="s">
-        <v>2215</v>
+        <v>2222</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>2216</v>
+        <v>2223</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>2217</v>
+        <v>2224</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>2218</v>
+        <v>2225</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>2219</v>
+        <v>2226</v>
       </c>
       <c r="H264" s="2" t="s">
-        <v>2220</v>
+        <v>2227</v>
       </c>
       <c r="I264" s="2" t="s">
-        <v>2221</v>
+        <v>2228</v>
       </c>
       <c r="J264" s="2" t="s">
-        <v>2222</v>
+        <v>2229</v>
       </c>
       <c r="K264" s="2" t="s">
-        <v>2223</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="265" ht="18" spans="1:11">
       <c r="A265" s="5" t="s">
-        <v>2224</v>
+        <v>2231</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>2225</v>
+        <v>2232</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>2226</v>
+        <v>2233</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>2227</v>
+        <v>2234</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>2228</v>
+        <v>2235</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>2229</v>
+        <v>2236</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>2230</v>
+        <v>2237</v>
       </c>
       <c r="H265" s="2" t="s">
-        <v>2231</v>
+        <v>2238</v>
       </c>
       <c r="I265" s="2" t="s">
-        <v>2232</v>
+        <v>2239</v>
       </c>
       <c r="J265" s="2" t="s">
-        <v>2233</v>
+        <v>2240</v>
       </c>
       <c r="K265" s="2" t="s">
-        <v>2234</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="266" ht="18" spans="1:11">
       <c r="A266" s="5" t="s">
-        <v>2235</v>
+        <v>2242</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>2236</v>
+        <v>2243</v>
       </c>
       <c r="C266" s="10" t="s">
-        <v>2237</v>
+        <v>2244</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>2238</v>
+        <v>2245</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>2239</v>
+        <v>2246</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>2240</v>
+        <v>2247</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>2241</v>
+        <v>2248</v>
       </c>
       <c r="H266" s="2" t="s">
-        <v>2242</v>
+        <v>2249</v>
       </c>
       <c r="I266" s="2" t="s">
-        <v>2243</v>
+        <v>2250</v>
       </c>
       <c r="J266" s="2" t="s">
-        <v>2244</v>
+        <v>2251</v>
       </c>
       <c r="K266" s="2" t="s">
-        <v>2245</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="267" ht="48" spans="1:11">
       <c r="A267" s="5" t="s">
-        <v>2246</v>
+        <v>2253</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>2247</v>
+        <v>2254</v>
       </c>
       <c r="C267" s="10" t="s">
-        <v>2248</v>
+        <v>2255</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>2249</v>
+        <v>2256</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>2250</v>
+        <v>2257</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>2251</v>
+        <v>2258</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>2252</v>
+        <v>2259</v>
       </c>
       <c r="H267" s="2" t="s">
-        <v>2253</v>
+        <v>2260</v>
       </c>
       <c r="I267" s="2" t="s">
-        <v>2254</v>
+        <v>2261</v>
       </c>
       <c r="J267" s="2" t="s">
-        <v>2255</v>
+        <v>2262</v>
       </c>
       <c r="K267" s="2" t="s">
-        <v>2256</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="268" ht="18" spans="1:11">
       <c r="A268" s="5" t="s">
-        <v>2257</v>
+        <v>2264</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>2258</v>
+        <v>2265</v>
       </c>
       <c r="C268" s="10" t="s">
-        <v>2259</v>
+        <v>2266</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>2260</v>
+        <v>2267</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>2261</v>
+        <v>2268</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>2262</v>
+        <v>2269</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>2263</v>
+        <v>2270</v>
       </c>
       <c r="H268" s="2" t="s">
-        <v>2264</v>
+        <v>2271</v>
       </c>
       <c r="I268" s="2" t="s">
-        <v>2265</v>
+        <v>2272</v>
       </c>
       <c r="J268" s="2" t="s">
-        <v>2266</v>
+        <v>2273</v>
       </c>
       <c r="K268" s="2" t="s">
-        <v>2267</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="269" ht="32" spans="1:11">
       <c r="A269" s="5" t="s">
-        <v>2268</v>
+        <v>2275</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>2269</v>
+        <v>2276</v>
       </c>
       <c r="C269" s="10" t="s">
-        <v>2270</v>
+        <v>2277</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>2271</v>
+        <v>2278</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>2272</v>
+        <v>2279</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>2273</v>
+        <v>2280</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>2274</v>
+        <v>2281</v>
       </c>
       <c r="H269" s="2" t="s">
-        <v>2275</v>
+        <v>2282</v>
       </c>
       <c r="I269" s="2" t="s">
-        <v>2276</v>
+        <v>2283</v>
       </c>
       <c r="J269" s="2" t="s">
-        <v>2277</v>
+        <v>2284</v>
       </c>
       <c r="K269" s="2" t="s">
-        <v>2278</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="270" spans="1:11">
@@ -19064,73 +19137,73 @@
       <c r="K270" s="2"/>
     </row>
     <row r="271" ht="18" spans="1:11">
-      <c r="A271" s="27" t="s">
-        <v>2279</v>
+      <c r="A271" s="33" t="s">
+        <v>2286</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>2280</v>
+        <v>2287</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>2281</v>
+        <v>2288</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>2282</v>
+        <v>2289</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>2283</v>
+        <v>2290</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>2284</v>
+        <v>2291</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>2285</v>
+        <v>2292</v>
       </c>
       <c r="H271" s="2" t="s">
-        <v>2286</v>
+        <v>2293</v>
       </c>
       <c r="I271" s="2" t="s">
-        <v>2287</v>
+        <v>2294</v>
       </c>
       <c r="J271" s="2" t="s">
-        <v>2288</v>
+        <v>2295</v>
       </c>
       <c r="K271" s="2" t="s">
-        <v>2289</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="272" ht="48" spans="1:11">
       <c r="A272" s="5" t="s">
-        <v>2290</v>
+        <v>2297</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>2291</v>
+        <v>2298</v>
       </c>
       <c r="C272" s="10" t="s">
-        <v>2292</v>
+        <v>2299</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>2293</v>
+        <v>2300</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>2294</v>
+        <v>2301</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>2295</v>
+        <v>2302</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>2296</v>
+        <v>2303</v>
       </c>
       <c r="H272" s="2" t="s">
-        <v>2297</v>
+        <v>2304</v>
       </c>
       <c r="I272" s="2" t="s">
-        <v>2298</v>
+        <v>2305</v>
       </c>
       <c r="J272" s="2" t="s">
-        <v>2299</v>
+        <v>2306</v>
       </c>
       <c r="K272" s="2" t="s">
-        <v>2300</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="273" spans="1:11">
@@ -19147,7 +19220,7 @@
     </row>
     <row r="274" spans="1:11">
       <c r="A274" s="15" t="s">
-        <v>2301</v>
+        <v>2308</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" s="10"/>
@@ -19162,147 +19235,147 @@
     </row>
     <row r="275" spans="1:11">
       <c r="A275" s="1" t="s">
-        <v>2302</v>
+        <v>2309</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>2303</v>
+        <v>2310</v>
       </c>
       <c r="C275" s="10" t="s">
-        <v>2304</v>
+        <v>2311</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>2174</v>
+        <v>2181</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>2305</v>
+        <v>2312</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>605</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>2177</v>
+        <v>2184</v>
       </c>
       <c r="H275" s="2" t="s">
-        <v>2306</v>
+        <v>2313</v>
       </c>
       <c r="I275" s="2" t="s">
-        <v>2307</v>
+        <v>2314</v>
       </c>
       <c r="J275" s="2" t="s">
-        <v>2308</v>
+        <v>2315</v>
       </c>
       <c r="K275" s="2" t="s">
-        <v>2309</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="276" spans="1:11">
       <c r="A276" s="1" t="s">
-        <v>2310</v>
+        <v>2317</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>2311</v>
+        <v>2318</v>
       </c>
       <c r="C276" s="10" t="s">
-        <v>2312</v>
+        <v>2319</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>2313</v>
+        <v>2320</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>2314</v>
+        <v>2321</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>2315</v>
+        <v>2322</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>2316</v>
+        <v>2323</v>
       </c>
       <c r="H276" s="2" t="s">
-        <v>2317</v>
+        <v>2324</v>
       </c>
       <c r="I276" s="2" t="s">
-        <v>2318</v>
+        <v>2325</v>
       </c>
       <c r="J276" s="2" t="s">
-        <v>2319</v>
+        <v>2326</v>
       </c>
       <c r="K276" s="2" t="s">
-        <v>2320</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="277" spans="1:11">
       <c r="A277" s="1" t="s">
-        <v>2321</v>
+        <v>2328</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>2322</v>
+        <v>2329</v>
       </c>
       <c r="C277" s="10" t="s">
-        <v>2323</v>
+        <v>2330</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>2324</v>
+        <v>2331</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>2325</v>
+        <v>2332</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>2326</v>
+        <v>2333</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>2327</v>
+        <v>2334</v>
       </c>
       <c r="H277" s="2" t="s">
-        <v>2328</v>
+        <v>2335</v>
       </c>
       <c r="I277" s="2" t="s">
-        <v>2329</v>
+        <v>2336</v>
       </c>
       <c r="J277" s="2" t="s">
-        <v>2330</v>
+        <v>2337</v>
       </c>
       <c r="K277" s="2" t="s">
-        <v>2331</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="278" spans="1:11">
       <c r="A278" s="1" t="s">
-        <v>2332</v>
+        <v>2339</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>2333</v>
+        <v>2340</v>
       </c>
       <c r="C278" s="10" t="s">
-        <v>2334</v>
+        <v>2341</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>2335</v>
+        <v>2342</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>2336</v>
+        <v>2343</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>2337</v>
+        <v>2344</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>2338</v>
+        <v>2345</v>
       </c>
       <c r="H278" s="2" t="s">
-        <v>2339</v>
+        <v>2346</v>
       </c>
       <c r="I278" s="2" t="s">
-        <v>2340</v>
+        <v>2347</v>
       </c>
       <c r="J278" s="2" t="s">
-        <v>2341</v>
+        <v>2348</v>
       </c>
       <c r="K278" s="2" t="s">
-        <v>2342</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="279" spans="1:11">
       <c r="A279" s="1" t="s">
-        <v>2343</v>
+        <v>2350</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>601</v>
@@ -19311,7 +19384,7 @@
         <v>602</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>2344</v>
+        <v>2351</v>
       </c>
       <c r="E279" s="2" t="s">
         <v>604</v>
@@ -19323,10 +19396,10 @@
         <v>606</v>
       </c>
       <c r="H279" s="2" t="s">
-        <v>2345</v>
+        <v>2352</v>
       </c>
       <c r="I279" s="2" t="s">
-        <v>2346</v>
+        <v>2353</v>
       </c>
       <c r="J279" s="2" t="s">
         <v>609</v>
@@ -19337,107 +19410,107 @@
     </row>
     <row r="280" spans="1:11">
       <c r="A280" s="1" t="s">
-        <v>2347</v>
+        <v>2354</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>2348</v>
+        <v>2355</v>
       </c>
       <c r="C280" s="10" t="s">
-        <v>2349</v>
+        <v>2356</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>2350</v>
+        <v>2357</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>2351</v>
+        <v>2358</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>2352</v>
+        <v>2359</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>2353</v>
+        <v>2360</v>
       </c>
       <c r="H280" s="2" t="s">
-        <v>2354</v>
+        <v>2361</v>
       </c>
       <c r="I280" s="2" t="s">
-        <v>2355</v>
+        <v>2362</v>
       </c>
       <c r="J280" s="2" t="s">
-        <v>2356</v>
+        <v>2363</v>
       </c>
       <c r="K280" s="2" t="s">
-        <v>2357</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="281" spans="1:11">
       <c r="A281" s="1" t="s">
-        <v>2358</v>
+        <v>2365</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>2359</v>
+        <v>2366</v>
       </c>
       <c r="C281" s="10" t="s">
-        <v>2360</v>
+        <v>2367</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>2361</v>
+        <v>2368</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>2362</v>
+        <v>2369</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>2363</v>
+        <v>2370</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>2364</v>
+        <v>2371</v>
       </c>
       <c r="H281" s="2" t="s">
-        <v>2365</v>
+        <v>2372</v>
       </c>
       <c r="I281" s="2" t="s">
-        <v>2366</v>
+        <v>2373</v>
       </c>
       <c r="J281" s="2" t="s">
-        <v>2367</v>
+        <v>2374</v>
       </c>
       <c r="K281" s="2" t="s">
-        <v>2368</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="282" spans="1:11">
       <c r="A282" s="1" t="s">
-        <v>2369</v>
+        <v>2376</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>2370</v>
+        <v>2377</v>
       </c>
       <c r="C282" s="10" t="s">
-        <v>2371</v>
+        <v>2378</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>2372</v>
+        <v>2379</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>2373</v>
+        <v>2380</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>2374</v>
+        <v>2381</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>2375</v>
+        <v>2382</v>
       </c>
       <c r="H282" s="2" t="s">
         <v>969</v>
       </c>
       <c r="I282" s="2" t="s">
-        <v>2376</v>
+        <v>2383</v>
       </c>
       <c r="J282" s="2" t="s">
-        <v>2377</v>
+        <v>2384</v>
       </c>
       <c r="K282" s="2" t="s">
-        <v>2378</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="283" spans="1:11">
@@ -19455,7 +19528,7 @@
     </row>
     <row r="284" spans="1:11">
       <c r="A284" s="15" t="s">
-        <v>2379</v>
+        <v>2386</v>
       </c>
       <c r="B284" s="1"/>
       <c r="C284" s="10"/>
@@ -19470,282 +19543,282 @@
     </row>
     <row r="285" spans="1:11">
       <c r="A285" s="2" t="s">
-        <v>2380</v>
+        <v>2387</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>2381</v>
+        <v>2388</v>
       </c>
       <c r="C285" s="10" t="s">
-        <v>2382</v>
+        <v>2389</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>2383</v>
+        <v>2390</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>2384</v>
+        <v>2391</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>2385</v>
+        <v>2392</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>2386</v>
+        <v>2393</v>
       </c>
       <c r="H285" s="2" t="s">
-        <v>2387</v>
+        <v>2394</v>
       </c>
       <c r="I285" s="2" t="s">
+        <v>2395</v>
+      </c>
+      <c r="J285" s="2" t="s">
         <v>2388</v>
       </c>
-      <c r="J285" s="2" t="s">
-        <v>2381</v>
-      </c>
       <c r="K285" s="2" t="s">
-        <v>2389</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="286" spans="1:11">
       <c r="A286" s="1" t="s">
-        <v>2390</v>
+        <v>2397</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>2391</v>
+        <v>2398</v>
       </c>
       <c r="C286" s="10" t="s">
-        <v>2392</v>
+        <v>2399</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>2393</v>
+        <v>2400</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>2394</v>
+        <v>2401</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>2395</v>
+        <v>2402</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>2396</v>
-      </c>
-      <c r="H286" s="29" t="s">
-        <v>2397</v>
+        <v>2403</v>
+      </c>
+      <c r="H286" s="35" t="s">
+        <v>2404</v>
       </c>
       <c r="I286" s="2" t="s">
-        <v>2398</v>
+        <v>2405</v>
       </c>
       <c r="J286" s="2" t="s">
-        <v>2399</v>
+        <v>2406</v>
       </c>
       <c r="K286" s="18" t="s">
-        <v>2400</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="287" spans="1:11">
       <c r="A287" s="2" t="s">
-        <v>2401</v>
+        <v>2408</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>2402</v>
+        <v>2409</v>
       </c>
       <c r="C287" s="10" t="s">
-        <v>2403</v>
+        <v>2410</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>2404</v>
+        <v>2411</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>2405</v>
+        <v>2412</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>2406</v>
+        <v>2413</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>2407</v>
+        <v>2414</v>
       </c>
       <c r="H287" s="2" t="s">
-        <v>2408</v>
+        <v>2415</v>
       </c>
       <c r="I287" s="2" t="s">
-        <v>2409</v>
+        <v>2416</v>
       </c>
       <c r="J287" s="2" t="s">
-        <v>2410</v>
+        <v>2417</v>
       </c>
       <c r="K287" s="2" t="s">
-        <v>2411</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="288" spans="1:11">
       <c r="A288" s="1" t="s">
-        <v>2412</v>
+        <v>2419</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>2413</v>
+        <v>2420</v>
       </c>
       <c r="C288" s="10" t="s">
-        <v>2414</v>
+        <v>2421</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>2415</v>
+        <v>2422</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>2416</v>
+        <v>2423</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>2417</v>
+        <v>2424</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>2418</v>
-      </c>
-      <c r="H288" s="30" t="s">
-        <v>2419</v>
+        <v>2425</v>
+      </c>
+      <c r="H288" s="36" t="s">
+        <v>2426</v>
       </c>
       <c r="I288" s="2" t="s">
-        <v>2420</v>
+        <v>2427</v>
       </c>
       <c r="J288" s="2" t="s">
-        <v>2421</v>
+        <v>2428</v>
       </c>
       <c r="K288" s="2" t="s">
-        <v>2422</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="289" ht="32" spans="1:11">
       <c r="A289" s="2" t="s">
-        <v>2423</v>
+        <v>2430</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>2424</v>
+        <v>2431</v>
       </c>
       <c r="C289" s="10" t="s">
-        <v>2425</v>
+        <v>2432</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>2426</v>
+        <v>2433</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>2427</v>
+        <v>2434</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>2428</v>
+        <v>2435</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>2429</v>
+        <v>2436</v>
       </c>
       <c r="H289" s="2" t="s">
-        <v>2430</v>
+        <v>2437</v>
       </c>
       <c r="I289" s="2" t="s">
-        <v>2431</v>
+        <v>2438</v>
       </c>
       <c r="J289" s="2" t="s">
-        <v>2432</v>
+        <v>2439</v>
       </c>
       <c r="K289" s="2" t="s">
-        <v>2433</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="290" ht="48" spans="1:11">
       <c r="A290" s="2" t="s">
-        <v>2434</v>
+        <v>2441</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>2435</v>
+        <v>2442</v>
       </c>
       <c r="C290" s="10" t="s">
-        <v>2436</v>
+        <v>2443</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>2437</v>
+        <v>2444</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>2438</v>
+        <v>2445</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>2439</v>
+        <v>2446</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>2440</v>
+        <v>2447</v>
       </c>
       <c r="H290" s="2" t="s">
-        <v>2441</v>
+        <v>2448</v>
       </c>
       <c r="I290" s="2" t="s">
-        <v>2442</v>
+        <v>2449</v>
       </c>
       <c r="J290" s="2" t="s">
-        <v>2443</v>
+        <v>2450</v>
       </c>
       <c r="K290" s="2" t="s">
-        <v>2444</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="291" ht="32" spans="1:11">
       <c r="A291" s="2" t="s">
-        <v>2445</v>
+        <v>2452</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>2446</v>
+        <v>2453</v>
       </c>
       <c r="C291" s="10" t="s">
-        <v>2447</v>
+        <v>2454</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>2448</v>
+        <v>2455</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>2449</v>
+        <v>2456</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>2450</v>
+        <v>2457</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>2451</v>
+        <v>2458</v>
       </c>
       <c r="H291" s="2" t="s">
-        <v>2452</v>
+        <v>2459</v>
       </c>
       <c r="I291" s="2" t="s">
-        <v>2453</v>
+        <v>2460</v>
       </c>
       <c r="J291" s="2" t="s">
-        <v>2454</v>
+        <v>2461</v>
       </c>
       <c r="K291" s="2" t="s">
-        <v>2455</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="292" spans="1:11">
       <c r="A292" s="2" t="s">
-        <v>2456</v>
+        <v>2463</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>2457</v>
+        <v>2464</v>
       </c>
       <c r="C292" s="10" t="s">
-        <v>2458</v>
+        <v>2465</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>2459</v>
+        <v>2466</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>2460</v>
+        <v>2467</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>2461</v>
+        <v>2468</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>2462</v>
+        <v>2469</v>
       </c>
       <c r="H292" s="2" t="s">
-        <v>2463</v>
+        <v>2470</v>
       </c>
       <c r="I292" s="2" t="s">
-        <v>2464</v>
+        <v>2471</v>
       </c>
       <c r="J292" s="2" t="s">
-        <v>2465</v>
+        <v>2472</v>
       </c>
       <c r="K292" s="2" t="s">
-        <v>2466</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="293" spans="1:11">
@@ -19763,72 +19836,72 @@
     </row>
     <row r="294" spans="1:11">
       <c r="A294" s="2" t="s">
-        <v>2467</v>
+        <v>2474</v>
       </c>
       <c r="B294" s="7" t="s">
-        <v>2468</v>
+        <v>2475</v>
       </c>
       <c r="C294" s="10" t="s">
-        <v>2469</v>
+        <v>2476</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>2470</v>
+        <v>2477</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>2471</v>
+        <v>2478</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>2472</v>
+        <v>2479</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>2473</v>
-      </c>
-      <c r="H294" s="30" t="s">
-        <v>2474</v>
+        <v>2480</v>
+      </c>
+      <c r="H294" s="36" t="s">
+        <v>2481</v>
       </c>
       <c r="I294" s="2" t="s">
-        <v>2475</v>
+        <v>2482</v>
       </c>
       <c r="J294" s="2" t="s">
+        <v>2483</v>
+      </c>
+      <c r="K294" s="2" t="s">
         <v>2476</v>
-      </c>
-      <c r="K294" s="2" t="s">
-        <v>2469</v>
       </c>
     </row>
     <row r="295" spans="1:11">
       <c r="A295" s="2" t="s">
-        <v>2477</v>
+        <v>2484</v>
       </c>
       <c r="B295" s="7" t="s">
-        <v>2478</v>
+        <v>2485</v>
       </c>
       <c r="C295" s="10" t="s">
-        <v>2479</v>
+        <v>2486</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>2480</v>
+        <v>2487</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>2481</v>
+        <v>2488</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>2482</v>
+        <v>2489</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>2483</v>
-      </c>
-      <c r="H295" s="30" t="s">
-        <v>2484</v>
+        <v>2490</v>
+      </c>
+      <c r="H295" s="36" t="s">
+        <v>2491</v>
       </c>
       <c r="I295" s="2" t="s">
+        <v>2492</v>
+      </c>
+      <c r="J295" s="2" t="s">
         <v>2485</v>
       </c>
-      <c r="J295" s="2" t="s">
-        <v>2478</v>
-      </c>
       <c r="K295" s="2" t="s">
-        <v>2486</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="296" spans="1:11">
@@ -19846,171 +19919,171 @@
     </row>
     <row r="297" spans="1:11">
       <c r="A297" s="2" t="s">
-        <v>2487</v>
+        <v>2494</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>2488</v>
+        <v>2495</v>
       </c>
       <c r="C297" s="10" t="s">
-        <v>2489</v>
+        <v>2496</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>2490</v>
+        <v>2497</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>2491</v>
+        <v>2498</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>2492</v>
+        <v>2499</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>2493</v>
+        <v>2500</v>
       </c>
       <c r="H297" s="2" t="s">
-        <v>2494</v>
+        <v>2501</v>
       </c>
       <c r="I297" s="2" t="s">
-        <v>2495</v>
+        <v>2502</v>
       </c>
       <c r="J297" s="2" t="s">
-        <v>2496</v>
+        <v>2503</v>
       </c>
       <c r="K297" s="2" t="s">
-        <v>2497</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="298" spans="1:11">
       <c r="A298" s="2" t="s">
-        <v>2498</v>
+        <v>2505</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>2499</v>
+        <v>2506</v>
       </c>
       <c r="C298" s="10" t="s">
-        <v>2500</v>
+        <v>2507</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>2501</v>
+        <v>2508</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>2502</v>
+        <v>2509</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>2503</v>
+        <v>2510</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>2504</v>
+        <v>2511</v>
       </c>
       <c r="H298" s="2" t="s">
-        <v>2505</v>
+        <v>2512</v>
       </c>
       <c r="I298" s="2" t="s">
-        <v>2506</v>
+        <v>2513</v>
       </c>
       <c r="J298" s="2" t="s">
-        <v>2507</v>
+        <v>2514</v>
       </c>
       <c r="K298" s="2" t="s">
-        <v>2508</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="299" ht="32" spans="1:11">
       <c r="A299" s="2" t="s">
-        <v>2509</v>
+        <v>2516</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>2510</v>
+        <v>2517</v>
       </c>
       <c r="C299" s="10" t="s">
-        <v>2511</v>
+        <v>2518</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>2512</v>
+        <v>2519</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>2513</v>
+        <v>2520</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>2514</v>
+        <v>2521</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>2515</v>
+        <v>2522</v>
       </c>
       <c r="H299" s="2" t="s">
-        <v>2516</v>
+        <v>2523</v>
       </c>
       <c r="I299" s="2" t="s">
-        <v>2517</v>
+        <v>2524</v>
       </c>
       <c r="J299" s="2" t="s">
-        <v>2518</v>
+        <v>2525</v>
       </c>
       <c r="K299" s="2" t="s">
-        <v>2519</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="300" spans="1:11">
       <c r="A300" s="2" t="s">
-        <v>2520</v>
+        <v>2527</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>2521</v>
+        <v>2528</v>
       </c>
       <c r="C300" s="10" t="s">
-        <v>2522</v>
+        <v>2529</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>2523</v>
+        <v>2530</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>2524</v>
+        <v>2531</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>2525</v>
+        <v>2532</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>2526</v>
+        <v>2533</v>
       </c>
       <c r="H300" s="2" t="s">
-        <v>2527</v>
+        <v>2534</v>
       </c>
       <c r="I300" s="2" t="s">
-        <v>2528</v>
+        <v>2535</v>
       </c>
       <c r="J300" s="2" t="s">
-        <v>2529</v>
+        <v>2536</v>
       </c>
       <c r="K300" s="2" t="s">
-        <v>2530</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="301" spans="1:11">
       <c r="A301" s="1" t="s">
-        <v>2531</v>
+        <v>2538</v>
       </c>
       <c r="B301" s="7" t="s">
         <v>216</v>
       </c>
       <c r="C301" s="10" t="s">
-        <v>2532</v>
+        <v>2539</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>2533</v>
+        <v>2540</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>2534</v>
+        <v>2541</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>2535</v>
+        <v>2542</v>
       </c>
       <c r="G301" s="2" t="s">
         <v>221</v>
       </c>
       <c r="H301" s="2" t="s">
-        <v>2536</v>
-      </c>
-      <c r="I301" s="31" t="s">
-        <v>2537</v>
+        <v>2543</v>
+      </c>
+      <c r="I301" s="37" t="s">
+        <v>2544</v>
       </c>
       <c r="J301" s="2" t="s">
         <v>224</v>
@@ -20034,107 +20107,107 @@
     </row>
     <row r="303" spans="1:11">
       <c r="A303" s="2" t="s">
-        <v>2538</v>
+        <v>2545</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>2539</v>
+        <v>2546</v>
       </c>
       <c r="C303" s="10" t="s">
-        <v>2540</v>
+        <v>2547</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>2541</v>
+        <v>2548</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>2542</v>
+        <v>2549</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>2543</v>
+        <v>2550</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>2544</v>
+        <v>2551</v>
       </c>
       <c r="H303" s="2" t="s">
-        <v>2545</v>
+        <v>2552</v>
       </c>
       <c r="I303" s="2" t="s">
-        <v>2546</v>
+        <v>2553</v>
       </c>
       <c r="J303" s="2" t="s">
-        <v>2547</v>
+        <v>2554</v>
       </c>
       <c r="K303" s="2" t="s">
-        <v>2548</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="304" spans="1:11">
       <c r="A304" s="2" t="s">
-        <v>2549</v>
+        <v>2556</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>2550</v>
+        <v>2557</v>
       </c>
       <c r="C304" s="10" t="s">
-        <v>2551</v>
+        <v>2558</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>2552</v>
+        <v>2559</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>2553</v>
+        <v>2560</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>2554</v>
+        <v>2561</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>2555</v>
+        <v>2562</v>
       </c>
       <c r="H304" s="2" t="s">
-        <v>2556</v>
+        <v>2563</v>
       </c>
       <c r="I304" s="2" t="s">
-        <v>2557</v>
+        <v>2564</v>
       </c>
       <c r="J304" s="2" t="s">
-        <v>2558</v>
+        <v>2565</v>
       </c>
       <c r="K304" s="2" t="s">
-        <v>2559</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="305" spans="1:11">
       <c r="A305" s="2" t="s">
-        <v>2560</v>
+        <v>2567</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>2561</v>
+        <v>2568</v>
       </c>
       <c r="C305" s="10" t="s">
-        <v>2562</v>
+        <v>2569</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>2563</v>
+        <v>2570</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>2564</v>
+        <v>2571</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>2565</v>
+        <v>2572</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>2566</v>
+        <v>2573</v>
       </c>
       <c r="H305" s="2" t="s">
-        <v>2567</v>
+        <v>2574</v>
       </c>
       <c r="I305" s="2" t="s">
-        <v>2568</v>
+        <v>2575</v>
       </c>
       <c r="J305" s="2" t="s">
-        <v>2569</v>
+        <v>2576</v>
       </c>
       <c r="K305" s="2" t="s">
-        <v>2570</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="306" spans="1:11">
@@ -20152,142 +20225,142 @@
     </row>
     <row r="307" ht="32" spans="1:11">
       <c r="A307" s="2" t="s">
-        <v>2571</v>
+        <v>2578</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>2572</v>
+        <v>2579</v>
       </c>
       <c r="C307" s="10" t="s">
-        <v>2573</v>
+        <v>2580</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>2574</v>
+        <v>2581</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>2575</v>
+        <v>2582</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>2576</v>
+        <v>2583</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>2577</v>
+        <v>2584</v>
       </c>
       <c r="H307" s="2" t="s">
-        <v>2578</v>
+        <v>2585</v>
       </c>
       <c r="I307" s="2" t="s">
-        <v>2579</v>
+        <v>2586</v>
       </c>
       <c r="J307" s="2" t="s">
-        <v>2580</v>
+        <v>2587</v>
       </c>
       <c r="K307" s="2" t="s">
-        <v>2581</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="308" ht="48" spans="1:11">
       <c r="A308" s="2" t="s">
-        <v>2582</v>
+        <v>2589</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>2583</v>
+        <v>2590</v>
       </c>
       <c r="C308" s="10" t="s">
-        <v>2584</v>
+        <v>2591</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>2585</v>
+        <v>2592</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>2586</v>
+        <v>2593</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>2587</v>
+        <v>2594</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>2588</v>
+        <v>2595</v>
       </c>
       <c r="H308" s="2" t="s">
-        <v>2589</v>
+        <v>2596</v>
       </c>
       <c r="I308" s="2" t="s">
-        <v>2590</v>
+        <v>2597</v>
       </c>
       <c r="J308" s="2" t="s">
-        <v>2591</v>
+        <v>2598</v>
       </c>
       <c r="K308" s="2" t="s">
-        <v>2592</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="309" spans="1:11">
       <c r="A309" s="2" t="s">
-        <v>2593</v>
+        <v>2600</v>
       </c>
       <c r="B309" s="7" t="s">
-        <v>2594</v>
+        <v>2601</v>
       </c>
       <c r="C309" s="10" t="s">
-        <v>2595</v>
+        <v>2602</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>2596</v>
+        <v>2603</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>2597</v>
+        <v>2604</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>2598</v>
+        <v>2605</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>2599</v>
+        <v>2606</v>
       </c>
       <c r="H309" s="2" t="s">
-        <v>2600</v>
+        <v>2607</v>
       </c>
       <c r="I309" s="2" t="s">
-        <v>2601</v>
+        <v>2608</v>
       </c>
       <c r="J309" s="2" t="s">
-        <v>2602</v>
+        <v>2609</v>
       </c>
       <c r="K309" s="2" t="s">
-        <v>2603</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="310" spans="1:11">
       <c r="A310" s="2" t="s">
-        <v>2604</v>
+        <v>2611</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>2605</v>
+        <v>2612</v>
       </c>
       <c r="C310" s="10" t="s">
-        <v>2606</v>
+        <v>2613</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>2607</v>
+        <v>2614</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>2608</v>
+        <v>2615</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>2609</v>
+        <v>2616</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>2610</v>
+        <v>2617</v>
       </c>
       <c r="H310" s="2" t="s">
-        <v>2611</v>
+        <v>2618</v>
       </c>
       <c r="I310" s="2" t="s">
-        <v>2612</v>
+        <v>2619</v>
       </c>
       <c r="J310" s="2" t="s">
-        <v>2613</v>
+        <v>2620</v>
       </c>
       <c r="K310" s="2" t="s">
-        <v>2614</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="311" spans="1:11">
@@ -20305,72 +20378,72 @@
     </row>
     <row r="312" ht="48" spans="1:11">
       <c r="A312" s="2" t="s">
-        <v>2615</v>
+        <v>2622</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>2616</v>
+        <v>2623</v>
       </c>
       <c r="C312" s="10" t="s">
-        <v>2617</v>
+        <v>2624</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>2618</v>
+        <v>2625</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>2619</v>
+        <v>2626</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>2620</v>
+        <v>2627</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>2621</v>
+        <v>2628</v>
       </c>
       <c r="H312" s="2" t="s">
-        <v>2622</v>
+        <v>2629</v>
       </c>
       <c r="I312" s="2" t="s">
-        <v>2623</v>
+        <v>2630</v>
       </c>
       <c r="J312" s="2" t="s">
-        <v>2624</v>
+        <v>2631</v>
       </c>
       <c r="K312" s="2" t="s">
-        <v>2625</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="313" spans="1:11">
       <c r="A313" s="2" t="s">
-        <v>2626</v>
+        <v>2633</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>2627</v>
+        <v>2634</v>
       </c>
       <c r="C313" s="10" t="s">
-        <v>2628</v>
+        <v>2635</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>2629</v>
+        <v>2636</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>2630</v>
+        <v>2637</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>2631</v>
+        <v>2638</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>2632</v>
+        <v>2639</v>
       </c>
       <c r="H313" s="2" t="s">
-        <v>2633</v>
+        <v>2640</v>
       </c>
       <c r="I313" s="2" t="s">
-        <v>2634</v>
+        <v>2641</v>
       </c>
       <c r="J313" s="2" t="s">
-        <v>2635</v>
+        <v>2642</v>
       </c>
       <c r="K313" s="2" t="s">
-        <v>2636</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="314" spans="1:11">
@@ -20388,282 +20461,282 @@
     </row>
     <row r="315" spans="1:11">
       <c r="A315" s="2" t="s">
-        <v>2637</v>
+        <v>2644</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>2638</v>
+        <v>2645</v>
       </c>
       <c r="C315" s="10" t="s">
-        <v>2639</v>
+        <v>2646</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>2640</v>
+        <v>2647</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>2641</v>
+        <v>2648</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>2642</v>
+        <v>2649</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>2643</v>
+        <v>2650</v>
       </c>
       <c r="H315" s="2" t="s">
-        <v>2644</v>
+        <v>2651</v>
       </c>
       <c r="I315" s="2" t="s">
-        <v>2638</v>
+        <v>2645</v>
       </c>
       <c r="J315" s="2" t="s">
-        <v>2638</v>
+        <v>2645</v>
       </c>
       <c r="K315" s="2" t="s">
-        <v>2645</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="316" spans="1:11">
       <c r="A316" s="2" t="s">
-        <v>2646</v>
+        <v>2653</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>2647</v>
+        <v>2654</v>
       </c>
       <c r="C316" s="10" t="s">
-        <v>2648</v>
+        <v>2655</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>2649</v>
+        <v>2656</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>2650</v>
+        <v>2657</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>2651</v>
+        <v>2658</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>2652</v>
+        <v>2659</v>
       </c>
       <c r="H316" s="2" t="s">
-        <v>2653</v>
+        <v>2660</v>
       </c>
       <c r="I316" s="2" t="s">
-        <v>2647</v>
+        <v>2654</v>
       </c>
       <c r="J316" s="2" t="s">
-        <v>2647</v>
+        <v>2654</v>
       </c>
       <c r="K316" s="2" t="s">
-        <v>2654</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="317" spans="1:11">
       <c r="A317" s="2" t="s">
-        <v>2655</v>
+        <v>2662</v>
       </c>
       <c r="B317" s="7" t="s">
-        <v>2656</v>
+        <v>2663</v>
       </c>
       <c r="C317" s="10" t="s">
-        <v>2657</v>
+        <v>2664</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>2658</v>
+        <v>2665</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>2659</v>
+        <v>2666</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>2660</v>
+        <v>2667</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>2661</v>
+        <v>2668</v>
       </c>
       <c r="H317" s="2" t="s">
-        <v>2662</v>
+        <v>2669</v>
       </c>
       <c r="I317" s="2" t="s">
-        <v>2656</v>
+        <v>2663</v>
       </c>
       <c r="J317" s="2" t="s">
-        <v>2656</v>
+        <v>2663</v>
       </c>
       <c r="K317" s="2" t="s">
-        <v>2663</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="318" spans="1:11">
       <c r="A318" s="2" t="s">
-        <v>2664</v>
+        <v>2671</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>2665</v>
+        <v>2672</v>
       </c>
       <c r="C318" s="10" t="s">
-        <v>2666</v>
+        <v>2673</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>2667</v>
+        <v>2674</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>2668</v>
+        <v>2675</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>2669</v>
+        <v>2676</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>2670</v>
+        <v>2677</v>
       </c>
       <c r="H318" s="2" t="s">
-        <v>2671</v>
+        <v>2678</v>
       </c>
       <c r="I318" s="2" t="s">
-        <v>2665</v>
+        <v>2672</v>
       </c>
       <c r="J318" s="2" t="s">
-        <v>2665</v>
+        <v>2672</v>
       </c>
       <c r="K318" s="2" t="s">
-        <v>2672</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="319" spans="1:11">
       <c r="A319" s="2" t="s">
-        <v>2673</v>
+        <v>2680</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>2674</v>
+        <v>2681</v>
       </c>
       <c r="C319" s="10" t="s">
-        <v>2675</v>
+        <v>2682</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>2676</v>
+        <v>2683</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>2677</v>
+        <v>2684</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>2678</v>
+        <v>2685</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>2679</v>
+        <v>2686</v>
       </c>
       <c r="H319" s="2" t="s">
-        <v>2680</v>
+        <v>2687</v>
       </c>
       <c r="I319" s="2" t="s">
-        <v>2674</v>
+        <v>2681</v>
       </c>
       <c r="J319" s="2" t="s">
-        <v>2674</v>
+        <v>2681</v>
       </c>
       <c r="K319" s="2" t="s">
-        <v>2681</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="320" spans="1:11">
       <c r="A320" s="2" t="s">
-        <v>2682</v>
+        <v>2689</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>2683</v>
+        <v>2690</v>
       </c>
       <c r="C320" s="10" t="s">
-        <v>2684</v>
+        <v>2691</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>2685</v>
+        <v>2692</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>2686</v>
+        <v>2693</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>2687</v>
+        <v>2694</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>2688</v>
+        <v>2695</v>
       </c>
       <c r="H320" s="2" t="s">
-        <v>2689</v>
+        <v>2696</v>
       </c>
       <c r="I320" s="2" t="s">
-        <v>2683</v>
+        <v>2690</v>
       </c>
       <c r="J320" s="2" t="s">
-        <v>2683</v>
+        <v>2690</v>
       </c>
       <c r="K320" s="2" t="s">
-        <v>2690</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="321" spans="1:11">
       <c r="A321" s="2" t="s">
-        <v>2691</v>
+        <v>2698</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>2692</v>
+        <v>2699</v>
       </c>
       <c r="C321" s="10" t="s">
-        <v>2693</v>
+        <v>2700</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>2694</v>
+        <v>2701</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>2695</v>
+        <v>2702</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>2696</v>
+        <v>2703</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>2697</v>
+        <v>2704</v>
       </c>
       <c r="H321" s="2" t="s">
-        <v>2698</v>
+        <v>2705</v>
       </c>
       <c r="I321" s="2" t="s">
-        <v>2692</v>
+        <v>2699</v>
       </c>
       <c r="J321" s="2" t="s">
-        <v>2692</v>
+        <v>2699</v>
       </c>
       <c r="K321" s="2" t="s">
-        <v>2699</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="322" spans="1:11">
       <c r="A322" s="2" t="s">
-        <v>2700</v>
+        <v>2707</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>2701</v>
+        <v>2708</v>
       </c>
       <c r="C322" s="10" t="s">
-        <v>2702</v>
+        <v>2709</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>2703</v>
+        <v>2710</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>2704</v>
+        <v>2711</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>2705</v>
+        <v>2712</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>2706</v>
-      </c>
-      <c r="H322" s="30" t="s">
-        <v>2707</v>
+        <v>2713</v>
+      </c>
+      <c r="H322" s="36" t="s">
+        <v>2714</v>
       </c>
       <c r="I322" s="2" t="s">
-        <v>2701</v>
+        <v>2708</v>
       </c>
       <c r="J322" s="2" t="s">
-        <v>2701</v>
+        <v>2708</v>
       </c>
       <c r="K322" s="2" t="s">
-        <v>2708</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="323" spans="1:11">
@@ -20869,37 +20942,37 @@
     </row>
     <row r="330" spans="1:11">
       <c r="A330" s="2" t="s">
-        <v>2709</v>
+        <v>2716</v>
       </c>
       <c r="B330" s="9" t="s">
-        <v>2710</v>
+        <v>2717</v>
       </c>
       <c r="C330" s="10" t="s">
-        <v>2711</v>
+        <v>2718</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>2712</v>
+        <v>2719</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>2713</v>
+        <v>2720</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>2714</v>
+        <v>2721</v>
       </c>
       <c r="G330" s="2" t="s">
-        <v>2715</v>
+        <v>2722</v>
       </c>
       <c r="H330" s="2" t="s">
-        <v>2716</v>
+        <v>2723</v>
       </c>
       <c r="I330" s="2" t="s">
-        <v>2717</v>
+        <v>2724</v>
       </c>
       <c r="J330" s="2" t="s">
-        <v>2718</v>
+        <v>2725</v>
       </c>
       <c r="K330" s="2" t="s">
-        <v>2719</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="331" spans="1:11">
@@ -20928,7 +21001,7 @@
         <v>306</v>
       </c>
       <c r="I331" s="2" t="s">
-        <v>2720</v>
+        <v>2727</v>
       </c>
       <c r="J331" s="2" t="s">
         <v>308</v>
@@ -20963,7 +21036,7 @@
         <v>327</v>
       </c>
       <c r="I332" s="2" t="s">
-        <v>2721</v>
+        <v>2728</v>
       </c>
       <c r="J332" s="2" t="s">
         <v>321</v>
@@ -20987,72 +21060,72 @@
     </row>
     <row r="334" spans="1:11">
       <c r="A334" s="2" t="s">
-        <v>2722</v>
+        <v>2729</v>
       </c>
       <c r="B334" s="7" t="s">
-        <v>2723</v>
+        <v>2730</v>
       </c>
       <c r="C334" s="10" t="s">
-        <v>2724</v>
+        <v>2731</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>2725</v>
+        <v>2732</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>2726</v>
+        <v>2733</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>2727</v>
+        <v>2734</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>2728</v>
+        <v>2735</v>
       </c>
       <c r="H334" s="2" t="s">
-        <v>2729</v>
+        <v>2736</v>
       </c>
       <c r="I334" s="2" t="s">
+        <v>2737</v>
+      </c>
+      <c r="J334" s="2" t="s">
         <v>2730</v>
       </c>
-      <c r="J334" s="2" t="s">
-        <v>2723</v>
-      </c>
       <c r="K334" s="2" t="s">
-        <v>2731</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="335" spans="1:11">
       <c r="A335" s="2" t="s">
-        <v>2732</v>
+        <v>2739</v>
       </c>
       <c r="B335" s="7" t="s">
-        <v>2733</v>
+        <v>2740</v>
       </c>
       <c r="C335" s="10" t="s">
-        <v>2734</v>
+        <v>2741</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>2735</v>
+        <v>2742</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>2736</v>
+        <v>2743</v>
       </c>
       <c r="F335" s="2" t="s">
-        <v>2737</v>
+        <v>2744</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>2738</v>
+        <v>2745</v>
       </c>
       <c r="H335" s="2" t="s">
-        <v>2739</v>
+        <v>2746</v>
       </c>
       <c r="I335" s="2" t="s">
-        <v>2740</v>
+        <v>2747</v>
       </c>
       <c r="J335" s="2" t="s">
-        <v>2740</v>
+        <v>2747</v>
       </c>
       <c r="K335" s="2" t="s">
-        <v>2741</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="336" spans="1:11">
@@ -21070,142 +21143,142 @@
     </row>
     <row r="337" spans="1:11">
       <c r="A337" s="2" t="s">
-        <v>2742</v>
+        <v>2749</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>2743</v>
+        <v>2750</v>
       </c>
       <c r="C337" s="10" t="s">
-        <v>2744</v>
+        <v>2751</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>2745</v>
+        <v>2752</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>2746</v>
+        <v>2753</v>
       </c>
       <c r="F337" s="2" t="s">
-        <v>2747</v>
+        <v>2754</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>2748</v>
+        <v>2755</v>
       </c>
       <c r="H337" s="2" t="s">
-        <v>2749</v>
+        <v>2756</v>
       </c>
       <c r="I337" s="2" t="s">
-        <v>2750</v>
+        <v>2757</v>
       </c>
       <c r="J337" s="2" t="s">
-        <v>2750</v>
+        <v>2757</v>
       </c>
       <c r="K337" s="2" t="s">
-        <v>2751</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="338" spans="1:11">
       <c r="A338" s="2" t="s">
-        <v>2752</v>
+        <v>2759</v>
       </c>
       <c r="B338" s="7" t="s">
-        <v>2753</v>
+        <v>2760</v>
       </c>
       <c r="C338" s="10" t="s">
-        <v>2754</v>
+        <v>2761</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>2755</v>
+        <v>2762</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>2756</v>
+        <v>2763</v>
       </c>
       <c r="F338" s="2" t="s">
-        <v>2757</v>
+        <v>2764</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>2758</v>
+        <v>2765</v>
       </c>
       <c r="H338" s="2" t="s">
-        <v>2759</v>
+        <v>2766</v>
       </c>
       <c r="I338" s="2" t="s">
-        <v>2760</v>
+        <v>2767</v>
       </c>
       <c r="J338" s="2" t="s">
-        <v>2760</v>
+        <v>2767</v>
       </c>
       <c r="K338" s="2" t="s">
-        <v>2761</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="339" spans="1:11">
       <c r="A339" s="2" t="s">
-        <v>2762</v>
+        <v>2769</v>
       </c>
       <c r="B339" s="7" t="s">
-        <v>2763</v>
+        <v>2770</v>
       </c>
       <c r="C339" s="10" t="s">
-        <v>2764</v>
+        <v>2771</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>2765</v>
+        <v>2772</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>2766</v>
+        <v>2773</v>
       </c>
       <c r="F339" s="2" t="s">
-        <v>2767</v>
+        <v>2774</v>
       </c>
       <c r="G339" s="2" t="s">
-        <v>2768</v>
+        <v>2775</v>
       </c>
       <c r="H339" s="2" t="s">
-        <v>2769</v>
+        <v>2776</v>
       </c>
       <c r="I339" s="2" t="s">
-        <v>2770</v>
+        <v>2777</v>
       </c>
       <c r="J339" s="2" t="s">
-        <v>2771</v>
+        <v>2778</v>
       </c>
       <c r="K339" s="2" t="s">
-        <v>2772</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="340" ht="32" spans="1:11">
       <c r="A340" s="2" t="s">
-        <v>2773</v>
+        <v>2780</v>
       </c>
       <c r="B340" s="7" t="s">
-        <v>2774</v>
+        <v>2781</v>
       </c>
       <c r="C340" s="10" t="s">
-        <v>2775</v>
+        <v>2782</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>2776</v>
+        <v>2783</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>2777</v>
+        <v>2784</v>
       </c>
       <c r="F340" s="2" t="s">
-        <v>2778</v>
+        <v>2785</v>
       </c>
       <c r="G340" s="2" t="s">
-        <v>2779</v>
+        <v>2786</v>
       </c>
       <c r="H340" s="2" t="s">
-        <v>2780</v>
+        <v>2787</v>
       </c>
       <c r="I340" s="2" t="s">
-        <v>2781</v>
+        <v>2788</v>
       </c>
       <c r="J340" s="2" t="s">
-        <v>2782</v>
+        <v>2789</v>
       </c>
       <c r="K340" s="2" t="s">
-        <v>2783</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="341" spans="1:11">
@@ -21223,107 +21296,107 @@
     </row>
     <row r="342" spans="1:11">
       <c r="A342" s="2" t="s">
-        <v>2784</v>
+        <v>2791</v>
       </c>
       <c r="B342" s="9" t="s">
-        <v>2785</v>
+        <v>2792</v>
       </c>
       <c r="C342" s="10" t="s">
-        <v>2786</v>
+        <v>2793</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>2787</v>
+        <v>2794</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>2788</v>
+        <v>2795</v>
       </c>
       <c r="F342" s="2" t="s">
-        <v>2789</v>
+        <v>2796</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>2790</v>
+        <v>2797</v>
       </c>
       <c r="H342" s="2" t="s">
-        <v>2791</v>
+        <v>2798</v>
       </c>
       <c r="I342" s="2" t="s">
-        <v>2792</v>
+        <v>2799</v>
       </c>
       <c r="J342" s="2" t="s">
-        <v>2793</v>
+        <v>2800</v>
       </c>
       <c r="K342" s="2" t="s">
-        <v>2794</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="343" spans="1:11">
       <c r="A343" s="2" t="s">
-        <v>2795</v>
+        <v>2802</v>
       </c>
       <c r="B343" s="9" t="s">
-        <v>2796</v>
+        <v>2803</v>
       </c>
       <c r="C343" s="10" t="s">
-        <v>2797</v>
+        <v>2804</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>2798</v>
+        <v>2805</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>2799</v>
+        <v>2806</v>
       </c>
       <c r="F343" s="2" t="s">
-        <v>2800</v>
+        <v>2807</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>2801</v>
+        <v>2808</v>
       </c>
       <c r="H343" s="2" t="s">
-        <v>2802</v>
+        <v>2809</v>
       </c>
       <c r="I343" s="2" t="s">
+        <v>2810</v>
+      </c>
+      <c r="J343" s="2" t="s">
         <v>2803</v>
       </c>
-      <c r="J343" s="2" t="s">
-        <v>2796</v>
-      </c>
       <c r="K343" s="2" t="s">
-        <v>2804</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="344" spans="1:11">
       <c r="A344" s="2" t="s">
-        <v>2805</v>
+        <v>2812</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>2806</v>
+        <v>2813</v>
       </c>
       <c r="C344" s="10" t="s">
-        <v>2807</v>
+        <v>2814</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>2808</v>
+        <v>2815</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>2809</v>
+        <v>2816</v>
       </c>
       <c r="F344" s="2" t="s">
-        <v>2810</v>
+        <v>2817</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>2811</v>
+        <v>2818</v>
       </c>
       <c r="H344" s="2" t="s">
-        <v>2812</v>
+        <v>2819</v>
       </c>
       <c r="I344" s="2" t="s">
+        <v>2820</v>
+      </c>
+      <c r="J344" s="2" t="s">
         <v>2813</v>
       </c>
-      <c r="J344" s="2" t="s">
-        <v>2806</v>
-      </c>
       <c r="K344" s="2" t="s">
-        <v>2814</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="345" spans="1:11">
@@ -21340,143 +21413,143 @@
       <c r="K345" s="2"/>
     </row>
     <row r="346" spans="1:11">
-      <c r="A346" s="27" t="s">
-        <v>2815</v>
+      <c r="A346" s="33" t="s">
+        <v>2822</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>2816</v>
+        <v>2823</v>
       </c>
       <c r="C346" s="10" t="s">
-        <v>2817</v>
+        <v>2824</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>2817</v>
+        <v>2824</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>2818</v>
+        <v>2825</v>
       </c>
       <c r="F346" s="2" t="s">
-        <v>2819</v>
+        <v>2826</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>2820</v>
+        <v>2827</v>
       </c>
       <c r="H346" s="2" t="s">
-        <v>2821</v>
+        <v>2828</v>
       </c>
       <c r="I346" s="2" t="s">
-        <v>2822</v>
+        <v>2829</v>
       </c>
       <c r="J346" s="2" t="s">
-        <v>2816</v>
+        <v>2823</v>
       </c>
       <c r="K346" s="2" t="s">
-        <v>2823</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="347" spans="1:11">
-      <c r="A347" s="27" t="s">
-        <v>2824</v>
+      <c r="A347" s="33" t="s">
+        <v>2831</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>2825</v>
+        <v>2832</v>
       </c>
       <c r="C347" s="10" t="s">
-        <v>2826</v>
+        <v>2833</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>2827</v>
+        <v>2834</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>2828</v>
+        <v>2835</v>
       </c>
       <c r="F347" s="2" t="s">
-        <v>2829</v>
+        <v>2836</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>2830</v>
+        <v>2837</v>
       </c>
       <c r="H347" s="2" t="s">
-        <v>2831</v>
+        <v>2838</v>
       </c>
       <c r="I347" s="2" t="s">
-        <v>2832</v>
+        <v>2839</v>
       </c>
       <c r="J347" s="2" t="s">
-        <v>2833</v>
+        <v>2840</v>
       </c>
       <c r="K347" s="2" t="s">
-        <v>2834</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="348" spans="1:11">
-      <c r="A348" s="27" t="s">
-        <v>2835</v>
+      <c r="A348" s="33" t="s">
+        <v>2842</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>2836</v>
+        <v>2843</v>
       </c>
       <c r="C348" s="10" t="s">
-        <v>2837</v>
+        <v>2844</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>2838</v>
+        <v>2845</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>2839</v>
+        <v>2846</v>
       </c>
       <c r="F348" s="2" t="s">
-        <v>2840</v>
+        <v>2847</v>
       </c>
       <c r="G348" s="2" t="s">
-        <v>2841</v>
+        <v>2848</v>
       </c>
       <c r="H348" s="2" t="s">
-        <v>2842</v>
+        <v>2849</v>
       </c>
       <c r="I348" s="2" t="s">
-        <v>2843</v>
+        <v>2850</v>
       </c>
       <c r="J348" s="2" t="s">
-        <v>2844</v>
+        <v>2851</v>
       </c>
       <c r="K348" s="2" t="s">
-        <v>2845</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="349" spans="1:11">
-      <c r="A349" s="27" t="s">
-        <v>2846</v>
+      <c r="A349" s="33" t="s">
+        <v>2853</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>2847</v>
+        <v>2854</v>
       </c>
       <c r="C349" s="10" t="s">
-        <v>2848</v>
+        <v>2855</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>2849</v>
+        <v>2856</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>2850</v>
+        <v>2857</v>
       </c>
       <c r="F349" s="2" t="s">
-        <v>2851</v>
+        <v>2858</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>2852</v>
+        <v>2859</v>
       </c>
       <c r="H349" s="2" t="s">
-        <v>2853</v>
+        <v>2860</v>
       </c>
       <c r="I349" s="2" t="s">
-        <v>2854</v>
+        <v>2861</v>
       </c>
       <c r="J349" s="2" t="s">
-        <v>2855</v>
+        <v>2862</v>
       </c>
       <c r="K349" s="2" t="s">
-        <v>2856</v>
+        <v>2863</v>
       </c>
     </row>
   </sheetData>
@@ -21503,7 +21576,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>2857</v>
+        <v>2864</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
@@ -21789,10 +21862,10 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>2858</v>
+        <v>2865</v>
       </c>
       <c r="B36" t="s">
-        <v>2859</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -22101,450 +22174,450 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="4" t="s">
-        <v>2118</v>
+        <v>2125</v>
       </c>
       <c r="B75" t="s">
-        <v>2124</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="4" t="s">
-        <v>2127</v>
+        <v>2134</v>
       </c>
       <c r="B76" t="s">
-        <v>2133</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="4" t="s">
-        <v>2161</v>
+        <v>2168</v>
       </c>
       <c r="B77" t="s">
-        <v>2860</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="4" t="s">
-        <v>2172</v>
+        <v>2179</v>
       </c>
       <c r="B78" t="s">
-        <v>2178</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
-        <v>2182</v>
+        <v>2189</v>
       </c>
       <c r="B79" t="s">
-        <v>2188</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
-        <v>2192</v>
+        <v>2199</v>
       </c>
       <c r="B80" t="s">
-        <v>2861</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="4" t="s">
-        <v>2203</v>
+        <v>2210</v>
       </c>
       <c r="B81" t="s">
-        <v>2209</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="4" t="s">
-        <v>2214</v>
+        <v>2221</v>
       </c>
       <c r="B82" t="s">
-        <v>2220</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="4" t="s">
-        <v>2225</v>
+        <v>2232</v>
       </c>
       <c r="B83" t="s">
-        <v>2231</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="4" t="s">
-        <v>2236</v>
+        <v>2243</v>
       </c>
       <c r="B84" t="s">
-        <v>2242</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="4" t="s">
-        <v>2247</v>
+        <v>2254</v>
       </c>
       <c r="B85" t="s">
-        <v>2253</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="4" t="s">
-        <v>2258</v>
+        <v>2265</v>
       </c>
       <c r="B86" t="s">
-        <v>2264</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="4" t="s">
-        <v>2269</v>
+        <v>2276</v>
       </c>
       <c r="B87" t="s">
-        <v>2275</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="4" t="s">
-        <v>2280</v>
+        <v>2287</v>
       </c>
       <c r="B88" t="s">
-        <v>2286</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="4" t="s">
-        <v>2291</v>
+        <v>2298</v>
       </c>
       <c r="B89" t="s">
-        <v>2297</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="4" t="s">
-        <v>2381</v>
+        <v>2388</v>
       </c>
       <c r="B90" t="s">
-        <v>2387</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="4" t="s">
-        <v>2413</v>
+        <v>2420</v>
       </c>
       <c r="B91" t="s">
-        <v>2862</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="4" t="s">
-        <v>2424</v>
+        <v>2431</v>
       </c>
       <c r="B92" t="s">
-        <v>2430</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="93" ht="32" spans="1:2">
       <c r="A93" s="4" t="s">
-        <v>2435</v>
+        <v>2442</v>
       </c>
       <c r="B93" t="s">
-        <v>2863</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="4" t="s">
-        <v>2446</v>
+        <v>2453</v>
       </c>
       <c r="B94" t="s">
-        <v>2864</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="4" t="s">
-        <v>2457</v>
+        <v>2464</v>
       </c>
       <c r="B95" t="s">
-        <v>2865</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="4" t="s">
-        <v>2488</v>
+        <v>2495</v>
       </c>
       <c r="B96" t="s">
-        <v>2866</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="4" t="s">
-        <v>2499</v>
+        <v>2506</v>
       </c>
       <c r="B97" t="s">
-        <v>2867</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="4" t="s">
-        <v>2510</v>
+        <v>2517</v>
       </c>
       <c r="B98" t="s">
-        <v>2868</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="4" t="s">
-        <v>2521</v>
+        <v>2528</v>
       </c>
       <c r="B99" t="s">
-        <v>2527</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="4" t="s">
-        <v>2539</v>
+        <v>2546</v>
       </c>
       <c r="B100" t="s">
-        <v>2545</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="4" t="s">
-        <v>2869</v>
+        <v>2876</v>
       </c>
       <c r="B101" t="s">
-        <v>2870</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="4" t="s">
-        <v>2871</v>
+        <v>2878</v>
       </c>
       <c r="B102" t="s">
-        <v>2872</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="4" t="s">
-        <v>2572</v>
+        <v>2579</v>
       </c>
       <c r="B103" t="s">
-        <v>2873</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="104" ht="32" spans="1:2">
       <c r="A104" s="4" t="s">
-        <v>2583</v>
+        <v>2590</v>
       </c>
       <c r="B104" t="s">
-        <v>2874</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="4" t="s">
-        <v>2594</v>
+        <v>2601</v>
       </c>
       <c r="B105" t="s">
-        <v>2600</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="4" t="s">
-        <v>2605</v>
+        <v>2612</v>
       </c>
       <c r="B106" t="s">
-        <v>2611</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="107" ht="32" spans="1:2">
       <c r="A107" s="4" t="s">
-        <v>2616</v>
+        <v>2623</v>
       </c>
       <c r="B107" t="s">
-        <v>2875</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="4" t="s">
-        <v>2627</v>
+        <v>2634</v>
       </c>
       <c r="B108" t="s">
-        <v>2633</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="4" t="s">
-        <v>2638</v>
+        <v>2645</v>
       </c>
       <c r="B109" t="s">
-        <v>2644</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="4" t="s">
-        <v>2647</v>
+        <v>2654</v>
       </c>
       <c r="B110" t="s">
-        <v>2653</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="4" t="s">
-        <v>2656</v>
+        <v>2663</v>
       </c>
       <c r="B111" t="s">
-        <v>2662</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="4" t="s">
-        <v>2665</v>
+        <v>2672</v>
       </c>
       <c r="B112" t="s">
-        <v>2671</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="4" t="s">
-        <v>2674</v>
+        <v>2681</v>
       </c>
       <c r="B113" t="s">
-        <v>2680</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1" t="s">
-        <v>2683</v>
+        <v>2690</v>
       </c>
       <c r="B114" t="s">
-        <v>2689</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2" t="s">
-        <v>2692</v>
+        <v>2699</v>
       </c>
       <c r="B115" t="s">
-        <v>2698</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2" t="s">
-        <v>2701</v>
+        <v>2708</v>
       </c>
       <c r="B116" t="s">
-        <v>2876</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1" t="s">
-        <v>2710</v>
+        <v>2717</v>
       </c>
       <c r="B117" t="s">
-        <v>2716</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1" t="s">
-        <v>2723</v>
+        <v>2730</v>
       </c>
       <c r="B118" t="s">
-        <v>2729</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1" t="s">
-        <v>2733</v>
+        <v>2740</v>
       </c>
       <c r="B119" t="s">
-        <v>2739</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1" t="s">
-        <v>2743</v>
+        <v>2750</v>
       </c>
       <c r="B120" t="s">
-        <v>2877</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1" t="s">
-        <v>2753</v>
+        <v>2760</v>
       </c>
       <c r="B121" t="s">
-        <v>2759</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1" t="s">
-        <v>2763</v>
+        <v>2770</v>
       </c>
       <c r="B122" t="s">
-        <v>2769</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1" t="s">
-        <v>2774</v>
+        <v>2781</v>
       </c>
       <c r="B123" t="s">
-        <v>2780</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2" t="s">
-        <v>2785</v>
+        <v>2792</v>
       </c>
       <c r="B124" t="s">
-        <v>2791</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="4" t="s">
-        <v>2796</v>
+        <v>2803</v>
       </c>
       <c r="B125" t="s">
-        <v>2878</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="4" t="s">
-        <v>2806</v>
+        <v>2813</v>
       </c>
       <c r="B126" t="s">
-        <v>2812</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="4" t="s">
-        <v>2816</v>
+        <v>2823</v>
       </c>
       <c r="B127" t="s">
-        <v>2821</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="4" t="s">
-        <v>2825</v>
+        <v>2832</v>
       </c>
       <c r="B128" t="s">
-        <v>2831</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="4" t="s">
-        <v>2836</v>
+        <v>2843</v>
       </c>
       <c r="B129" t="s">
-        <v>2842</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="4" t="s">
-        <v>2847</v>
+        <v>2854</v>
       </c>
       <c r="B130" t="s">
-        <v>2853</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="131" spans="1:1">
